--- a/MiddleAssignment_LeTuanSang/MiddleAssignment_TestDesign3/TestDesign3_LeTuanSang.xlsx
+++ b/MiddleAssignment_LeTuanSang/MiddleAssignment_TestDesign3/TestDesign3_LeTuanSang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NashTechHomeWork_LeTuanSang\MiddleAssignment_LeTuanSang\MiddleAssignment_TestDesign3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82656321-A043-4E87-BA74-57014FDF681F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC4CAC6-C90C-4DF4-927E-CD38EB3E3152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19575" yWindow="315" windowWidth="9195" windowHeight="14715" tabRatio="840" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="840" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Record of Change" sheetId="4" r:id="rId1"/>
@@ -155,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F72" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="F63" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F73" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+    <comment ref="F64" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -203,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F75" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+    <comment ref="F66" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F88" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+    <comment ref="F79" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -251,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G88" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+    <comment ref="G79" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -275,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F89" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
+    <comment ref="F80" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -299,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G89" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
+    <comment ref="G80" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -323,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F94" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000C000000}">
+    <comment ref="F85" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -347,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G94" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000D000000}">
+    <comment ref="G85" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -371,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F97" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000E000000}">
+    <comment ref="F88" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -395,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F112" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000F000000}">
+    <comment ref="F103" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -419,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F114" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000010000000}">
+    <comment ref="F105" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000010000000}">
       <text>
         <r>
           <rPr>
@@ -448,7 +448,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="276">
   <si>
     <r>
       <t xml:space="preserve">Security Classification: </t>
@@ -1139,30 +1139,9 @@
     <t>1. User can search product by entering Product Name/Category Name/Brand Name/Supplier Name</t>
   </si>
   <si>
-    <t>Check Search Box UI and aligned</t>
-  </si>
-  <si>
-    <t>Check PlaceHolder of Search Box</t>
-  </si>
-  <si>
-    <t>Check Pointer(cursor) when click on Search Box</t>
-  </si>
-  <si>
-    <t>Check Search function by input data and click Search icon</t>
-  </si>
-  <si>
-    <t>Check Search function by input data and Enter</t>
-  </si>
-  <si>
-    <t>Check History is maintained for the previously Searched Keywords</t>
-  </si>
-  <si>
     <t>Check Search Box by pasting data</t>
   </si>
   <si>
-    <t>Check Search Box keep Keywords but search result by trimed</t>
-  </si>
-  <si>
     <t>Verify Search Result display Brand( shop) and Brand Product when input Brand Name</t>
   </si>
   <si>
@@ -1178,63 +1157,21 @@
     <t>Verify Search Result display similar function product when input Category Name</t>
   </si>
   <si>
-    <t>Check PlaceHolder remain when click on Search Box</t>
-  </si>
-  <si>
-    <t>Check maxlength of keyword</t>
-  </si>
-  <si>
-    <t>Check minlength of keyword</t>
-  </si>
-  <si>
     <t>Check Search Box by input URL, SQL, HTTP GET, SQL Injection, XSS</t>
   </si>
   <si>
-    <t>Check keyword is marked in search result</t>
-  </si>
-  <si>
     <t>2. If user enters text in Search box, system will show Search Suggestion</t>
   </si>
   <si>
-    <t>Check Suggestion by input keyword</t>
-  </si>
-  <si>
-    <t>Check related keywords are added to search results or not</t>
-  </si>
-  <si>
-    <t>Check autocomplete feature when input keyword</t>
-  </si>
-  <si>
     <t>Check automatic suggestion shown by adding keyword</t>
   </si>
   <si>
     <t>Check automatic suggestion shown by remove keyword</t>
   </si>
   <si>
-    <t>Check arrangement of suggestion</t>
-  </si>
-  <si>
-    <t>Check Suggestion similar with keyword</t>
-  </si>
-  <si>
-    <t>Check Suggestion by input special character keyword</t>
-  </si>
-  <si>
     <t>3. If user click on Search box, system will show Search History</t>
   </si>
   <si>
-    <t>Check result when click on history search</t>
-  </si>
-  <si>
-    <t>Check arrangment History search</t>
-  </si>
-  <si>
-    <t>Check History is maintained when refresh page</t>
-  </si>
-  <si>
-    <t>Check History is maintained when reopen page</t>
-  </si>
-  <si>
     <t>Check Delete button to clear history search</t>
   </si>
   <si>
@@ -1247,36 +1184,12 @@
     <t xml:space="preserve">Verify no product dislayed </t>
   </si>
   <si>
-    <t>Check serarch key remain on searh box when click search</t>
-  </si>
-  <si>
     <t>5. Results can be displayed in pagination –10 items per page</t>
   </si>
   <si>
-    <t xml:space="preserve">Check page display 10 product of 10 search result </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check page display 1 product of 1 search result </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check page display 9 product of 9 search result </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check page display 10 product of 11 search result </t>
-  </si>
-  <si>
-    <t>Check 11th product onwards appears when press page number button</t>
-  </si>
-  <si>
-    <t>Check &lt;&gt; button can click to next/ previous page</t>
-  </si>
-  <si>
     <t>6. Product can be sorted by ‘Price low to high’ and ‘Price high to low’</t>
   </si>
   <si>
-    <t>Check value of the arrangment droplist default is best fit</t>
-  </si>
-  <si>
     <t>Check value of the arrangment droplist is Best match, Price low to high, Price high to low</t>
   </si>
   <si>
@@ -1286,10 +1199,194 @@
     <t>Check search result sort by price descending when click on Price high to low</t>
   </si>
   <si>
-    <t>Check Search function by click Search icon but input nothing</t>
-  </si>
-  <si>
-    <t>Check Search function by Click search box and Enter but input nothing</t>
+    <t>Check Search Box UI as UI common check list</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Check inicial status of search text box</t>
+  </si>
+  <si>
+    <t>reload page</t>
+  </si>
+  <si>
+    <t>Search Box:"     kid"
+Result data for: "kid"</t>
+  </si>
+  <si>
+    <t>special character. &lt;output/&gt;</t>
+  </si>
+  <si>
+    <t>Check History when get page first time</t>
+  </si>
+  <si>
+    <t>Check History when search 1 time</t>
+  </si>
+  <si>
+    <t>Check History when search 5 time</t>
+  </si>
+  <si>
+    <t>Check Suggestion when input 1 character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check page display of 10 product </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check page display of 1 product </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check page display of 11 product </t>
+  </si>
+  <si>
+    <t>Check &lt;&gt; button if have 10 item</t>
+  </si>
+  <si>
+    <t>Check &lt;&gt; button if have 15 item</t>
+  </si>
+  <si>
+    <t>Check &lt;&gt; button if have 25 item</t>
+  </si>
+  <si>
+    <t>Check value of the arrangment droplist default is best match</t>
+  </si>
+  <si>
+    <t>- Page 1 show 10 item: &lt; disable, &gt; enable
+- Click &gt; to show page 2 display the next 10 item. &lt;&gt; enable
+- Click &gt; to show page 3 display the last 5 item. &lt; enable, &gt; disable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Page 1 show 10 item: &lt; disable, &gt; enable
+- Click &gt; to show page 2 display 5 item last. &gt; disable
+</t>
+  </si>
+  <si>
+    <t>- Value of the arrangment droplist
+- Best match
+- Price low to high
+- Price high to low</t>
+  </si>
+  <si>
+    <t>1. Poiter( cursor) show up, PlaceHolder remain
+3.1 Serarch key still displayed on searh box when click Search
+3.2 Serach result for "kid"</t>
+  </si>
+  <si>
+    <t>1. Click Search text box
+2. Input "kid"
+3. Click Search icon</t>
+  </si>
+  <si>
+    <t>1. Click Search text box
+2. Input "kid" "bag"
+3. Click Search icon</t>
+  </si>
+  <si>
+    <t>1. Click Search text box
+2. Input "kid bag"
+3. Click Search icon</t>
+  </si>
+  <si>
+    <t>results show 2 individual products for "kid" and "bag"</t>
+  </si>
+  <si>
+    <t>Check Search Result by input 1 keyword with 2 word</t>
+  </si>
+  <si>
+    <t>Check Search Result by input 2 keyword</t>
+  </si>
+  <si>
+    <t>Check Search Result by input keyword with space:"    kid"</t>
+  </si>
+  <si>
+    <t>Check Search Result by input 1 keyword</t>
+  </si>
+  <si>
+    <t>Check Search Result by input Search box nothing and Enter</t>
+  </si>
+  <si>
+    <t>Check Search Result by click Search button but input nothing</t>
+  </si>
+  <si>
+    <t>Check Search Result by input 1 keyword with " "</t>
+  </si>
+  <si>
+    <t>1. Click Search text box
+2. Input "kid&amp;bag*"
+3. Click Search icon</t>
+  </si>
+  <si>
+    <t>1. Click Search text box
+2. Input " "kid" "
+3. Click Search icon</t>
+  </si>
+  <si>
+    <t>3.2 Serach result for "kid"</t>
+  </si>
+  <si>
+    <t>Verify Search Result between uppercase and lowercase</t>
+  </si>
+  <si>
+    <t>1. Click Search text box
+2. Input "kid"
+3. Click Search icon
+4. Click Search text box
+5. Input "KID"
+6. Click Search icon
+7. Compare 2 result</t>
+  </si>
+  <si>
+    <t>2 result is the same</t>
+  </si>
+  <si>
+    <t>Results products for "kid bag"</t>
+  </si>
+  <si>
+    <t>Result for text in keyword "output"</t>
+  </si>
+  <si>
+    <t>Price 'arrangment low to high</t>
+  </si>
+  <si>
+    <t>Price 'arrangment high to low</t>
+  </si>
+  <si>
+    <t>Nothing ib history search</t>
+  </si>
+  <si>
+    <t>1 history search</t>
+  </si>
+  <si>
+    <t>- Show 5 keyword searched
+- History dropdownlist
++ Display value: 5
++ Sorting: order</t>
+  </si>
+  <si>
+    <t>Check Suggestion when leave search box blank</t>
+  </si>
+  <si>
+    <t>No suggestion</t>
+  </si>
+  <si>
+    <t>Show 10 suggestion</t>
+  </si>
+  <si>
+    <t>Suggestion chance following keyword</t>
+  </si>
+  <si>
+    <t>1. Click Search text box
+2. Paste "kid"
+3. Click Search icon</t>
+  </si>
+  <si>
+    <t>Page show 10 item</t>
+  </si>
+  <si>
+    <t>Page 1 show 10 item, page 2 show 1 item</t>
+  </si>
+  <si>
+    <t>Both &lt;&gt; are disable</t>
   </si>
 </sst>
 </file>
@@ -2267,7 +2364,7 @@
     <xf numFmtId="166" fontId="56" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -2385,15 +2482,9 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2408,9 +2499,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2716,6 +2804,18 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="16" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2794,6 +2894,21 @@
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2803,12 +2918,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2896,49 +3005,43 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="22" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="background" xfId="10" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3675,7 +3778,7 @@
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="66" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="16"/>
@@ -3699,146 +3802,146 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="167" t="s">
+      <c r="A4" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="168"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="169"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="170"/>
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="171" t="s">
+      <c r="B5" s="171"/>
+      <c r="C5" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A6" s="172" t="s">
+      <c r="A6" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="173"/>
-      <c r="C6" s="166" t="s">
+      <c r="B6" s="174"/>
+      <c r="C6" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
       <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A7" s="142"/>
-      <c r="B7" s="142"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="143"/>
+      <c r="A7" s="139"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
       <c r="F7" s="18"/>
     </row>
-    <row r="8" spans="1:6" s="144" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="164" t="s">
+    <row r="8" spans="1:6" s="141" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A8" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="165"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
-    </row>
-    <row r="9" spans="1:6" s="144" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="145" t="s">
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+    </row>
+    <row r="9" spans="1:6" s="141" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="145" t="s">
+      <c r="B9" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="145" t="s">
+      <c r="C9" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="145" t="s">
+      <c r="D9" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="145" t="s">
+      <c r="E9" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="145" t="s">
+      <c r="F9" s="142" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="144" customFormat="1" ht="38.25">
-      <c r="A10" s="128" t="s">
+    <row r="10" spans="1:6" s="141" customFormat="1" ht="38.25">
+      <c r="A10" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="147" t="s">
+      <c r="D10" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="131" t="s">
+      <c r="E10" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="146" t="s">
+      <c r="F10" s="143" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="144" customFormat="1" ht="25.5">
-      <c r="A11" s="128">
+    <row r="11" spans="1:6" s="141" customFormat="1" ht="25.5">
+      <c r="A11" s="125">
         <v>1.3</v>
       </c>
-      <c r="B11" s="129">
+      <c r="B11" s="126">
         <v>43082</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="147" t="s">
+      <c r="D11" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="131" t="s">
+      <c r="E11" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="146" t="s">
+      <c r="F11" s="143" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="144" customFormat="1" ht="102">
-      <c r="A12" s="159">
+    <row r="12" spans="1:6" s="141" customFormat="1" ht="102">
+      <c r="A12" s="156">
         <v>1.4</v>
       </c>
-      <c r="B12" s="160" t="s">
+      <c r="B12" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="161" t="s">
+      <c r="C12" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="162" t="s">
+      <c r="D12" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="163" t="s">
+      <c r="E12" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="146" t="s">
+      <c r="F12" s="143" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="144" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="166" t="s">
+    <row r="13" spans="1:6" s="141" customFormat="1" ht="30" customHeight="1">
+      <c r="A13" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="166"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="166"/>
+      <c r="B13" s="167"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18"/>
@@ -3954,55 +4057,55 @@
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
       <c r="H1" s="34"/>
-      <c r="I1" s="152" t="s">
+      <c r="I1" s="149" t="s">
         <v>24</v>
       </c>
       <c r="J1" s="34"/>
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="177" t="s">
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="177"/>
+      <c r="K2" s="178"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="180" t="s">
+      <c r="B3" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="178" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="178"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
     </row>
     <row r="6" spans="1:11" ht="23.25">
       <c r="A6" s="4" t="s">
@@ -4010,65 +4113,65 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="184" t="s">
+      <c r="A7" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="184"/>
-      <c r="C7" s="184"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="184"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="184"/>
-      <c r="H7" s="184"/>
-      <c r="I7" s="184"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="185"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="185"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="185"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="184"/>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="184"/>
+      <c r="A8" s="185"/>
+      <c r="B8" s="185"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="185"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="184"/>
-      <c r="C9" s="184"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="184"/>
-      <c r="F9" s="184"/>
-      <c r="G9" s="184"/>
-      <c r="H9" s="184"/>
-      <c r="I9" s="184"/>
+      <c r="B9" s="185"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="185"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="184"/>
-      <c r="B10" s="184"/>
-      <c r="C10" s="184"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="184"/>
-      <c r="F10" s="184"/>
-      <c r="G10" s="184"/>
-      <c r="H10" s="184"/>
-      <c r="I10" s="184"/>
+      <c r="A10" s="185"/>
+      <c r="B10" s="185"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="185"/>
     </row>
     <row r="11" spans="1:11" ht="14.25">
-      <c r="A11" s="185" t="s">
+      <c r="A11" s="186" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="185"/>
-      <c r="C11" s="185"/>
-      <c r="D11" s="185"/>
-      <c r="E11" s="185"/>
-      <c r="F11" s="185"/>
-      <c r="G11" s="185"/>
-      <c r="H11" s="185"/>
-      <c r="I11" s="185"/>
+      <c r="B11" s="186"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="186"/>
+      <c r="E11" s="186"/>
+      <c r="F11" s="186"/>
+      <c r="G11" s="186"/>
+      <c r="H11" s="186"/>
+      <c r="I11" s="186"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3"/>
@@ -4087,68 +4190,68 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="132" t="s">
+      <c r="A14" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="181" t="s">
+      <c r="B14" s="182" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="182"/>
-      <c r="D14" s="182"/>
-      <c r="E14" s="182"/>
-      <c r="F14" s="182"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="182"/>
-      <c r="I14" s="182"/>
-      <c r="J14" s="182"/>
-      <c r="K14" s="183"/>
+      <c r="C14" s="183"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="183"/>
+      <c r="I14" s="183"/>
+      <c r="J14" s="183"/>
+      <c r="K14" s="184"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A15" s="132" t="s">
+      <c r="A15" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="181" t="s">
+      <c r="B15" s="182" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="182"/>
-      <c r="K15" s="183"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="183"/>
+      <c r="I15" s="183"/>
+      <c r="J15" s="183"/>
+      <c r="K15" s="184"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A16" s="132"/>
-      <c r="B16" s="181" t="s">
+      <c r="A16" s="129"/>
+      <c r="B16" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="182"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="182"/>
-      <c r="K16" s="183"/>
+      <c r="C16" s="183"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="183"/>
+      <c r="F16" s="183"/>
+      <c r="G16" s="183"/>
+      <c r="H16" s="183"/>
+      <c r="I16" s="183"/>
+      <c r="J16" s="183"/>
+      <c r="K16" s="184"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A17" s="132"/>
-      <c r="B17" s="181" t="s">
+      <c r="A17" s="129"/>
+      <c r="B17" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="182"/>
-      <c r="D17" s="182"/>
-      <c r="E17" s="182"/>
-      <c r="F17" s="182"/>
-      <c r="G17" s="182"/>
-      <c r="H17" s="182"/>
-      <c r="I17" s="182"/>
-      <c r="J17" s="182"/>
-      <c r="K17" s="183"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="183"/>
+      <c r="G17" s="183"/>
+      <c r="H17" s="183"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="183"/>
+      <c r="K17" s="184"/>
     </row>
     <row r="19" spans="1:14" ht="23.25">
       <c r="A19" s="4" t="s">
@@ -4156,43 +4259,43 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="132" t="s">
+      <c r="A20" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="181" t="s">
+      <c r="B20" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="182"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="182"/>
-      <c r="F20" s="182"/>
-      <c r="G20" s="183"/>
+      <c r="C20" s="183"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="183"/>
+      <c r="F20" s="183"/>
+      <c r="G20" s="184"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A21" s="132" t="s">
+      <c r="A21" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="181" t="s">
+      <c r="B21" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="182"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="182"/>
-      <c r="F21" s="182"/>
-      <c r="G21" s="183"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="183"/>
+      <c r="G21" s="184"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A22" s="132" t="s">
+      <c r="A22" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="181" t="s">
+      <c r="B22" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="182"/>
-      <c r="D22" s="182"/>
-      <c r="E22" s="182"/>
-      <c r="F22" s="182"/>
-      <c r="G22" s="183"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="183"/>
+      <c r="G22" s="184"/>
     </row>
     <row r="24" spans="1:14" ht="23.25">
       <c r="A24" s="4" t="s">
@@ -4200,62 +4303,62 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="14.25">
-      <c r="A25" s="151" t="s">
+      <c r="A25" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="151"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="151"/>
-      <c r="G25" s="151"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="151"/>
-      <c r="K25" s="151"/>
-      <c r="L25" s="151"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="68"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
+      <c r="N25" s="65"/>
     </row>
     <row r="26" spans="1:14" ht="14.25">
-      <c r="A26" s="151" t="s">
+      <c r="A26" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="68"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+      <c r="N26" s="65"/>
     </row>
     <row r="27" spans="1:14" ht="14.25">
-      <c r="A27" s="151" t="s">
+      <c r="A27" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="151"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="68"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+      <c r="N27" s="65"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="174" t="s">
+      <c r="B29" s="175" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="175"/>
-      <c r="D29" s="176"/>
+      <c r="C29" s="176"/>
+      <c r="D29" s="177"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="5"/>
@@ -4272,7 +4375,7 @@
       </c>
     </row>
     <row r="33" spans="1:1" ht="14.25">
-      <c r="A33" s="151" t="s">
+      <c r="A33" s="148" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4332,14 +4435,14 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="25.5">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="187" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10"/>
@@ -4348,7 +4451,7 @@
     </row>
     <row r="5" spans="1:10" ht="25.5">
       <c r="A5" s="8"/>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="130" t="s">
         <v>57</v>
       </c>
       <c r="E5" s="14"/>
@@ -4357,22 +4460,22 @@
       <c r="A6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="135" t="s">
+      <c r="D7" s="132" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="135" t="s">
+      <c r="E7" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="135" t="s">
+      <c r="F7" s="132" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4430,7 +4533,7 @@
         <v>68</v>
       </c>
       <c r="C11" s="20"/>
-      <c r="D11" s="70"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
     </row>
@@ -4442,7 +4545,7 @@
         <v>68</v>
       </c>
       <c r="C12" s="20"/>
-      <c r="D12" s="70"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
     </row>
@@ -4454,7 +4557,7 @@
         <v>69</v>
       </c>
       <c r="C13" s="20"/>
-      <c r="D13" s="70"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
     </row>
@@ -4466,7 +4569,7 @@
         <v>69</v>
       </c>
       <c r="C14" s="20"/>
-      <c r="D14" s="70"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
     </row>
@@ -4474,7 +4577,7 @@
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
-      <c r="D15" s="70"/>
+      <c r="D15" s="67"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
     </row>
@@ -4482,7 +4585,7 @@
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
-      <c r="D16" s="70"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
     </row>
@@ -4525,13 +4628,13 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="26.25">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="190" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="153"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="150"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -4560,16 +4663,16 @@
       <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="24">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="133" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="133" t="s">
         <v>73</v>
       </c>
       <c r="E5" s="29"/>
@@ -4691,18 +4794,18 @@
       <c r="F14" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="15">
-      <c r="A16" s="187" t="s">
+      <c r="A16" s="188" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="187"/>
+      <c r="B16" s="188"/>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="14.25">
-      <c r="A17" s="188" t="s">
+      <c r="A17" s="189" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="188"/>
+      <c r="B17" s="189"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="33"/>
@@ -4729,17 +4832,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:X114"/>
+  <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="76" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="73" customWidth="1"/>
     <col min="2" max="2" width="65" style="46" customWidth="1"/>
-    <col min="3" max="4" width="35.140625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="240" customWidth="1"/>
     <col min="5" max="5" width="32.140625" style="46" customWidth="1"/>
     <col min="6" max="8" width="9.7109375" style="46" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" style="46" customWidth="1"/>
@@ -4747,10 +4851,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="14.25">
-      <c r="A1" s="193"/>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
+      <c r="A1" s="191"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -4759,13 +4863,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="192" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="199"/>
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="203"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -4774,9 +4878,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="199"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="203"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -4784,14 +4888,14 @@
       <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:24" s="38" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="134" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="196" t="s">
+      <c r="B4" s="200" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="196"/>
-      <c r="D4" s="196"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -4802,12 +4906,12 @@
       </c>
     </row>
     <row r="5" spans="1:24" s="38" customFormat="1" ht="144.75" customHeight="1">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="195"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="200"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -4818,12 +4922,12 @@
       </c>
     </row>
     <row r="6" spans="1:24" s="38" customFormat="1" ht="25.5">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="195"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -4831,14 +4935,14 @@
       <c r="I6" s="40"/>
     </row>
     <row r="7" spans="1:24" s="38" customFormat="1">
-      <c r="A7" s="137" t="s">
+      <c r="A7" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="196" t="s">
+      <c r="B7" s="200" t="s">
         <v>201</v>
       </c>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -4847,96 +4951,96 @@
       <c r="X7" s="42"/>
     </row>
     <row r="8" spans="1:24" s="43" customFormat="1">
-      <c r="A8" s="137" t="s">
+      <c r="A8" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="197"/>
-      <c r="C8" s="197"/>
-      <c r="D8" s="197"/>
+      <c r="B8" s="201"/>
+      <c r="C8" s="201"/>
+      <c r="D8" s="201"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="71" t="str">
+      <c r="B9" s="68" t="str">
         <f>F17</f>
         <v>Internal Build 03112011</v>
       </c>
-      <c r="C9" s="71" t="str">
+      <c r="C9" s="68" t="str">
         <f>G17</f>
         <v>Internal build 14112011</v>
       </c>
-      <c r="D9" s="71" t="str">
+      <c r="D9" s="229" t="str">
         <f>H17</f>
         <v>External build 16112011</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="43" customFormat="1">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="72">
+      <c r="B10" s="69">
         <f>SUM(B11:B14)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="72">
+      <c r="C10" s="69">
         <f>SUM(C11:C14)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="230">
         <f>SUM(D11:D14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="43" customFormat="1">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="73">
-        <f>COUNTIF($F$18:$F$49666,"*Passed")</f>
+      <c r="B11" s="70">
+        <f>COUNTIF($F$18:$F$49657,"*Passed")</f>
         <v>0</v>
       </c>
-      <c r="C11" s="73">
-        <f>COUNTIF($G$18:$G$49666,"*Passed")</f>
+      <c r="C11" s="70">
+        <f>COUNTIF($G$18:$G$49657,"*Passed")</f>
         <v>0</v>
       </c>
-      <c r="D11" s="73">
-        <f>COUNTIF($H$18:$H$49666,"*Passed")</f>
+      <c r="D11" s="231">
+        <f>COUNTIF($H$18:$H$49657,"*Passed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="43" customFormat="1">
-      <c r="A12" s="139" t="s">
+      <c r="A12" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="73">
-        <f>COUNTIF($F$18:$F$49386,"*Failed*")</f>
+      <c r="B12" s="70">
+        <f>COUNTIF($F$18:$F$49377,"*Failed*")</f>
         <v>0</v>
       </c>
-      <c r="C12" s="73">
-        <f>COUNTIF($G$18:$G$49386,"*Failed*")</f>
+      <c r="C12" s="70">
+        <f>COUNTIF($G$18:$G$49377,"*Failed*")</f>
         <v>0</v>
       </c>
-      <c r="D12" s="73">
-        <f>COUNTIF($H$18:$H$49386,"*Failed*")</f>
+      <c r="D12" s="231">
+        <f>COUNTIF($H$18:$H$49377,"*Failed*")</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="43" customFormat="1">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="73">
-        <f>COUNTIF($F$18:$F$49386,"*Not Run*")</f>
+      <c r="B13" s="70">
+        <f>COUNTIF($F$18:$F$49377,"*Not Run*")</f>
         <v>0</v>
       </c>
-      <c r="C13" s="73">
-        <f>COUNTIF($G$18:$G$49386,"*Not Run*")</f>
+      <c r="C13" s="70">
+        <f>COUNTIF($G$18:$G$49377,"*Not Run*")</f>
         <v>0</v>
       </c>
-      <c r="D13" s="73">
-        <f>COUNTIF($H$18:$H$49386,"*Not Run*")</f>
+      <c r="D13" s="231">
+        <f>COUNTIF($H$18:$H$49377,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="1"/>
@@ -4946,19 +5050,19 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:24" s="43" customFormat="1">
-      <c r="A14" s="139" t="s">
+      <c r="A14" s="136" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="73">
-        <f>COUNTIF($F$18:$F$49386,"*NA*")</f>
+      <c r="B14" s="70">
+        <f>COUNTIF($F$18:$F$49377,"*NA*")</f>
         <v>0</v>
       </c>
-      <c r="C14" s="73">
-        <f>COUNTIF($G$18:$G$49386,"*NA*")</f>
+      <c r="C14" s="70">
+        <f>COUNTIF($G$18:$G$49377,"*NA*")</f>
         <v>0</v>
       </c>
-      <c r="D14" s="73">
-        <f>COUNTIF($H$18:$H$49386,"*NA*")</f>
+      <c r="D14" s="231">
+        <f>COUNTIF($H$18:$H$49377,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="1"/>
@@ -4968,19 +5072,19 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:24" s="43" customFormat="1" ht="38.25">
-      <c r="A15" s="139" t="s">
+      <c r="A15" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="73">
-        <f>COUNTIF($F$18:$F$49386,"*Passed in previous build*")</f>
+      <c r="B15" s="70">
+        <f>COUNTIF($F$18:$F$49377,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
-      <c r="C15" s="73">
-        <f>COUNTIF($G$18:$G$49386,"*Passed in previous build*")</f>
+      <c r="C15" s="70">
+        <f>COUNTIF($G$18:$G$49377,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
-      <c r="D15" s="73">
-        <f>COUNTIF($H$18:$H$49386,"*Passed in previous build*")</f>
+      <c r="D15" s="231">
+        <f>COUNTIF($H$18:$H$49377,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="1"/>
@@ -4990,1501 +5094,1423 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:24" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="74"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="50"/>
       <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="198" t="s">
+      <c r="D16" s="232"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="202" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="198"/>
-      <c r="H16" s="198"/>
-      <c r="I16" s="57"/>
+      <c r="G16" s="202"/>
+      <c r="H16" s="202"/>
+      <c r="I16" s="55"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="38.25">
-      <c r="A17" s="140" t="s">
+      <c r="A17" s="137" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="141" t="s">
+      <c r="B17" s="138" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="141" t="s">
+      <c r="C17" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="141" t="s">
+      <c r="D17" s="233" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="141" t="s">
+      <c r="E17" s="138" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="141" t="s">
+      <c r="F17" s="138" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="141" t="s">
+      <c r="G17" s="138" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="141" t="s">
+      <c r="H17" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="I17" s="141" t="s">
+      <c r="I17" s="138" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="65"/>
-      <c r="B18" s="190"/>
-      <c r="C18" s="191"/>
-      <c r="D18" s="192"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="65"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="196"/>
+      <c r="C18" s="197"/>
+      <c r="D18" s="198"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="62"/>
     </row>
     <row r="19" spans="1:9" s="45" customFormat="1">
-      <c r="A19" s="52">
+      <c r="A19" s="51">
         <v>1</v>
       </c>
-      <c r="B19" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="55"/>
+      <c r="B19" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="51"/>
+      <c r="D19" s="234"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="53"/>
     </row>
     <row r="20" spans="1:9" s="45" customFormat="1">
-      <c r="A20" s="58">
-        <f ca="1">IF(OFFSET(A20,-1,0) ="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1 )</f>
+      <c r="A20" s="163"/>
+      <c r="B20" s="163" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="164"/>
+      <c r="D20" s="196"/>
+      <c r="E20" s="197"/>
+      <c r="F20" s="198"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="198"/>
+    </row>
+    <row r="21" spans="1:9" s="45" customFormat="1">
+      <c r="A21" s="56">
+        <f ca="1">IF(OFFSET(A21,-1,0) ="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1 )</f>
         <v>2</v>
       </c>
-      <c r="B20" s="52" t="s">
-        <v>204</v>
-      </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="55"/>
-    </row>
-    <row r="21" spans="1:9" s="45" customFormat="1">
-      <c r="A21" s="58">
-        <f t="shared" ref="A21:A57" ca="1" si="0">IF(OFFSET(A21,-1,0) ="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1 )</f>
+      <c r="B21" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" s="51"/>
+      <c r="D21" s="235"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="53"/>
+    </row>
+    <row r="22" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A22" s="56">
+        <f t="shared" ref="A22:A49" ca="1" si="0">IF(OFFSET(A22,-1,0) ="",OFFSET(A22,-2,0)+1,OFFSET(A22,-1,0)+1 )</f>
         <v>3</v>
       </c>
-      <c r="B21" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="55"/>
-    </row>
-    <row r="22" spans="1:9" s="45" customFormat="1">
-      <c r="A22" s="58">
+      <c r="B22" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="C22" s="51"/>
+      <c r="D22" s="228"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="58"/>
+    </row>
+    <row r="23" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A23" s="56">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="B22" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="55"/>
-    </row>
-    <row r="23" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A23" s="58">
+      <c r="B23" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="C23" s="51"/>
+      <c r="D23" s="228" t="s">
+        <v>226</v>
+      </c>
+      <c r="E23" s="52"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="58"/>
+    </row>
+    <row r="24" spans="1:9" s="48" customFormat="1" ht="63.75">
+      <c r="A24" s="56">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-      <c r="B23" s="52" t="s">
-        <v>252</v>
-      </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="61"/>
-    </row>
-    <row r="24" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A24" s="58">
+      <c r="B24" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" s="228" t="s">
+        <v>243</v>
+      </c>
+      <c r="E24" s="52"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="58"/>
+    </row>
+    <row r="25" spans="1:9" s="48" customFormat="1" ht="38.25">
+      <c r="A25" s="56">
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-      <c r="B24" s="52" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="61"/>
-    </row>
-    <row r="25" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A25" s="58">
+      <c r="B25" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" s="228" t="s">
+        <v>257</v>
+      </c>
+      <c r="E25" s="52"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="58"/>
+    </row>
+    <row r="26" spans="1:9" s="48" customFormat="1" ht="25.5">
+      <c r="A26" s="56">
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
-      <c r="B25" s="52" t="s">
-        <v>253</v>
-      </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="61"/>
-    </row>
-    <row r="26" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A26" s="58">
+      <c r="B26" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="51"/>
+      <c r="D26" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="E26" s="52"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="58"/>
+    </row>
+    <row r="27" spans="1:9" s="48" customFormat="1" ht="38.25">
+      <c r="A27" s="56">
         <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
-      <c r="B26" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="61"/>
-    </row>
-    <row r="27" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A27" s="58">
+      <c r="B27" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" s="228" t="s">
+        <v>247</v>
+      </c>
+      <c r="E27" s="52"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="58"/>
+    </row>
+    <row r="28" spans="1:9" s="48" customFormat="1" ht="38.25">
+      <c r="A28" s="56">
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="B27" s="52" t="s">
-        <v>239</v>
-      </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="61"/>
-    </row>
-    <row r="28" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A28" s="58">
+      <c r="B28" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="D28" s="228" t="s">
+        <v>261</v>
+      </c>
+      <c r="E28" s="52"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="58"/>
+    </row>
+    <row r="29" spans="1:9" s="48" customFormat="1" ht="38.25">
+      <c r="A29" s="56">
         <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
-      <c r="B28" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="61"/>
-    </row>
-    <row r="29" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A29" s="58">
+      <c r="B29" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="D29" s="228" t="s">
+        <v>261</v>
+      </c>
+      <c r="E29" s="52"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="58"/>
+    </row>
+    <row r="30" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A30" s="56">
         <f t="shared" ca="1" si="0"/>
         <v>11</v>
       </c>
-      <c r="B29" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="61"/>
-    </row>
-    <row r="30" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A30" s="58">
+      <c r="B30" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" s="228" t="s">
+        <v>262</v>
+      </c>
+      <c r="E30" s="52"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="58"/>
+    </row>
+    <row r="31" spans="1:9" s="48" customFormat="1" ht="89.25">
+      <c r="A31" s="56">
         <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
-      <c r="B30" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="61"/>
-    </row>
-    <row r="31" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A31" s="58">
+      <c r="B31" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="D31" s="228" t="s">
+        <v>260</v>
+      </c>
+      <c r="E31" s="52"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="58"/>
+    </row>
+    <row r="32" spans="1:9" s="48" customFormat="1" ht="38.25">
+      <c r="A32" s="56">
         <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
-      <c r="B31" s="52" t="s">
-        <v>217</v>
-      </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="61"/>
-    </row>
-    <row r="32" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A32" s="58">
+      <c r="B32" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="D32" s="228" t="s">
+        <v>257</v>
+      </c>
+      <c r="E32" s="52"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="58"/>
+    </row>
+    <row r="33" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A33" s="161"/>
+      <c r="B33" s="163" t="s">
+        <v>202</v>
+      </c>
+      <c r="C33" s="164"/>
+      <c r="D33" s="196"/>
+      <c r="E33" s="197"/>
+      <c r="F33" s="198"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="197"/>
+      <c r="I33" s="198"/>
+    </row>
+    <row r="34" spans="1:9" s="48" customFormat="1" ht="25.5">
+      <c r="A34" s="56">
         <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
-      <c r="B32" s="52" t="s">
-        <v>218</v>
-      </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="61"/>
-    </row>
-    <row r="33" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A33" s="58">
+      <c r="B34" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="51"/>
+      <c r="D34" s="228"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="58"/>
+    </row>
+    <row r="35" spans="1:9" s="48" customFormat="1" ht="25.5">
+      <c r="A35" s="56">
         <f t="shared" ca="1" si="0"/>
         <v>15</v>
       </c>
-      <c r="B33" s="52" t="s">
-        <v>219</v>
-      </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="61"/>
-    </row>
-    <row r="34" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A34" s="58">
+      <c r="B35" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" s="51"/>
+      <c r="D35" s="228"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="58"/>
+    </row>
+    <row r="36" spans="1:9" s="48" customFormat="1" ht="25.5">
+      <c r="A36" s="56">
         <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
-      <c r="B34" s="228" t="s">
-        <v>220</v>
-      </c>
-      <c r="C34" s="229"/>
-      <c r="D34" s="230"/>
-      <c r="E34" s="231"/>
-      <c r="F34" s="229"/>
-      <c r="G34" s="232"/>
-      <c r="H34" s="228"/>
-      <c r="I34" s="233"/>
-    </row>
-    <row r="35" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A35" s="224"/>
-      <c r="B35" s="226" t="s">
-        <v>202</v>
-      </c>
-      <c r="C35" s="227"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="191"/>
-      <c r="F35" s="192"/>
-      <c r="G35" s="190"/>
-      <c r="H35" s="191"/>
-      <c r="I35" s="192"/>
-    </row>
-    <row r="36" spans="1:9" s="48" customFormat="1" ht="25.5">
-      <c r="A36" s="58">
+      <c r="B36" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" s="51"/>
+      <c r="D36" s="228"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="58"/>
+    </row>
+    <row r="37" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A37" s="56">
         <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
-      <c r="B36" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="61"/>
-    </row>
-    <row r="37" spans="1:9" s="48" customFormat="1" ht="25.5">
-      <c r="A37" s="58">
+      <c r="B37" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="C37" s="51"/>
+      <c r="D37" s="228"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="58"/>
+    </row>
+    <row r="38" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A38" s="163"/>
+      <c r="B38" s="161" t="s">
+        <v>210</v>
+      </c>
+      <c r="C38" s="161"/>
+      <c r="D38" s="237"/>
+      <c r="E38" s="161"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="161"/>
+    </row>
+    <row r="39" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A39" s="56">
         <f t="shared" ca="1" si="0"/>
         <v>18</v>
       </c>
-      <c r="B37" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="61"/>
-    </row>
-    <row r="38" spans="1:9" s="48" customFormat="1" ht="25.5">
-      <c r="A38" s="58">
+      <c r="B39" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="D39" s="228" t="s">
+        <v>269</v>
+      </c>
+      <c r="E39" s="52"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="58"/>
+    </row>
+    <row r="40" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A40" s="56">
         <f t="shared" ca="1" si="0"/>
         <v>19</v>
       </c>
-      <c r="B38" s="52" t="s">
-        <v>211</v>
-      </c>
-      <c r="C38" s="52"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="61"/>
-    </row>
-    <row r="39" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A39" s="58">
+      <c r="B40" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="C40" s="51"/>
+      <c r="D40" s="228" t="s">
+        <v>270</v>
+      </c>
+      <c r="E40" s="52"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="58"/>
+    </row>
+    <row r="41" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A41" s="56">
         <f t="shared" ca="1" si="0"/>
         <v>20</v>
       </c>
-      <c r="B39" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="61"/>
-    </row>
-    <row r="40" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A40" s="224"/>
-      <c r="B40" s="224" t="s">
-        <v>221</v>
-      </c>
-      <c r="C40" s="224"/>
-      <c r="D40" s="224"/>
-      <c r="E40" s="224"/>
-      <c r="F40" s="224"/>
-      <c r="G40" s="224"/>
-      <c r="H40" s="224"/>
-      <c r="I40" s="224"/>
-    </row>
-    <row r="41" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A41" s="58">
+      <c r="B41" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="C41" s="51"/>
+      <c r="D41" s="228" t="s">
+        <v>271</v>
+      </c>
+      <c r="E41" s="52"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="58"/>
+    </row>
+    <row r="42" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A42" s="56">
         <f t="shared" ca="1" si="0"/>
         <v>21</v>
       </c>
-      <c r="B41" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="61"/>
-    </row>
-    <row r="42" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A42" s="58">
+      <c r="B42" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C42" s="51"/>
+      <c r="D42" s="228" t="s">
+        <v>271</v>
+      </c>
+      <c r="E42" s="52"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="58"/>
+    </row>
+    <row r="43" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A43" s="161"/>
+      <c r="B43" s="161" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" s="161"/>
+      <c r="D43" s="237"/>
+      <c r="E43" s="161"/>
+      <c r="F43" s="161"/>
+      <c r="G43" s="161"/>
+      <c r="H43" s="161"/>
+      <c r="I43" s="161"/>
+    </row>
+    <row r="44" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A44" s="56">
         <f t="shared" ca="1" si="0"/>
         <v>22</v>
       </c>
-      <c r="B42" s="52" t="s">
-        <v>228</v>
-      </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="61"/>
-    </row>
-    <row r="43" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A43" s="58">
+      <c r="B44" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="C44" s="51"/>
+      <c r="D44" s="228" t="s">
+        <v>265</v>
+      </c>
+      <c r="E44" s="52"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="58"/>
+    </row>
+    <row r="45" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A45" s="56">
         <f t="shared" ca="1" si="0"/>
         <v>23</v>
       </c>
-      <c r="B43" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="61"/>
-    </row>
-    <row r="44" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A44" s="58">
+      <c r="B45" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="C45" s="51"/>
+      <c r="D45" s="228" t="s">
+        <v>266</v>
+      </c>
+      <c r="E45" s="52"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="58"/>
+    </row>
+    <row r="46" spans="1:9" s="48" customFormat="1" ht="51">
+      <c r="A46" s="56">
         <f t="shared" ca="1" si="0"/>
         <v>24</v>
       </c>
-      <c r="B44" s="52" t="s">
-        <v>226</v>
-      </c>
-      <c r="C44" s="52"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="61"/>
-    </row>
-    <row r="45" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A45" s="58">
+      <c r="B46" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="C46" s="51"/>
+      <c r="D46" s="228" t="s">
+        <v>267</v>
+      </c>
+      <c r="E46" s="52"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="58"/>
+    </row>
+    <row r="47" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A47" s="56">
         <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
-      <c r="B45" s="52" t="s">
-        <v>224</v>
-      </c>
-      <c r="C45" s="52"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="61"/>
-    </row>
-    <row r="46" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A46" s="58">
+      <c r="B47" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47" s="51"/>
+      <c r="D47" s="238"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="58"/>
+    </row>
+    <row r="48" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A48" s="162"/>
+      <c r="B48" s="162" t="s">
+        <v>215</v>
+      </c>
+      <c r="C48" s="163"/>
+      <c r="D48" s="239"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="64"/>
+    </row>
+    <row r="49" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A49" s="56">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="B46" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="C46" s="52"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="61"/>
-    </row>
-    <row r="47" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A47" s="58">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B49" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" s="51"/>
+      <c r="D49" s="234"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="59"/>
+    </row>
+    <row r="50" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A50" s="59">
+        <f t="shared" ref="A50" ca="1" si="1">IF(OFFSET(A50,-1,0) ="",OFFSET(A50,-2,0)+1,OFFSET(A50,-1,0)+1 )</f>
         <v>27</v>
       </c>
-      <c r="B47" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="52"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="61"/>
-    </row>
-    <row r="48" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A48" s="58">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B50" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="C50" s="51"/>
+      <c r="D50" s="236"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="59"/>
+    </row>
+    <row r="51" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A51" s="72"/>
+      <c r="B51" s="193" t="s">
+        <v>218</v>
+      </c>
+      <c r="C51" s="194"/>
+      <c r="D51" s="195"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="64"/>
+    </row>
+    <row r="52" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A52" s="59">
+        <f t="shared" ref="A52:A105" ca="1" si="2">IF(OFFSET(A52,-1,0) ="",OFFSET(A52,-2,0)+1,OFFSET(A52,-1,0)+1 )</f>
         <v>28</v>
       </c>
-      <c r="B48" s="52" t="s">
-        <v>229</v>
-      </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="61"/>
-    </row>
-    <row r="49" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A49" s="224"/>
-      <c r="B49" s="224" t="s">
-        <v>230</v>
-      </c>
-      <c r="C49" s="224"/>
-      <c r="D49" s="224"/>
-      <c r="E49" s="224"/>
-      <c r="F49" s="224"/>
-      <c r="G49" s="224"/>
-      <c r="H49" s="224"/>
-      <c r="I49" s="224"/>
-    </row>
-    <row r="50" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A50" s="58">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B52" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="C52" s="51"/>
+      <c r="D52" s="234" t="s">
+        <v>273</v>
+      </c>
+      <c r="E52" s="52"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="59"/>
+    </row>
+    <row r="53" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A53" s="59">
+        <f t="shared" ca="1" si="2"/>
         <v>29</v>
       </c>
-      <c r="B50" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="C50" s="52"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="61"/>
-    </row>
-    <row r="51" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A51" s="58">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B53" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53" s="51"/>
+      <c r="D53" s="234" t="s">
+        <v>273</v>
+      </c>
+      <c r="E53" s="52"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="59"/>
+    </row>
+    <row r="54" spans="1:9" s="48" customFormat="1" ht="25.5">
+      <c r="A54" s="59">
+        <f t="shared" ca="1" si="2"/>
         <v>30</v>
       </c>
-      <c r="B51" s="52" t="s">
-        <v>232</v>
-      </c>
-      <c r="C51" s="52"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="61"/>
-    </row>
-    <row r="52" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A52" s="58">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B54" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="C54" s="51"/>
+      <c r="D54" s="234" t="s">
+        <v>274</v>
+      </c>
+      <c r="E54" s="52"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="59"/>
+    </row>
+    <row r="55" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A55" s="59">
+        <f t="shared" ca="1" si="2"/>
         <v>31</v>
       </c>
-      <c r="B52" s="52" t="s">
-        <v>231</v>
-      </c>
-      <c r="C52" s="52"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="61"/>
-    </row>
-    <row r="53" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A53" s="58">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B55" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="C55" s="51"/>
+      <c r="D55" s="234" t="s">
+        <v>275</v>
+      </c>
+      <c r="E55" s="52"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="59"/>
+    </row>
+    <row r="56" spans="1:9" s="48" customFormat="1" ht="63.75">
+      <c r="A56" s="59">
+        <f t="shared" ca="1" si="2"/>
         <v>32</v>
       </c>
-      <c r="B53" s="52" t="s">
-        <v>233</v>
-      </c>
-      <c r="C53" s="52"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="61"/>
-    </row>
-    <row r="54" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A54" s="58">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B56" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="C56" s="51"/>
+      <c r="D56" s="234" t="s">
+        <v>241</v>
+      </c>
+      <c r="E56" s="52"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="59"/>
+    </row>
+    <row r="57" spans="1:9" s="48" customFormat="1" ht="76.5">
+      <c r="A57" s="59">
+        <f t="shared" ca="1" si="2"/>
         <v>33</v>
       </c>
-      <c r="B54" s="232" t="s">
-        <v>234</v>
-      </c>
-      <c r="C54" s="228"/>
-      <c r="D54" s="234"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="61"/>
-    </row>
-    <row r="55" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A55" s="58">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B57" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="C57" s="51"/>
+      <c r="D57" s="234" t="s">
+        <v>240</v>
+      </c>
+      <c r="E57" s="52"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="59"/>
+    </row>
+    <row r="58" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A58" s="72"/>
+      <c r="B58" s="193" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" s="194"/>
+      <c r="D58" s="195"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="64"/>
+    </row>
+    <row r="59" spans="1:9" s="49" customFormat="1" ht="14.25">
+      <c r="A59" s="60">
+        <f t="shared" ca="1" si="2"/>
         <v>34</v>
       </c>
-      <c r="B55" s="232" t="s">
-        <v>235</v>
-      </c>
-      <c r="C55" s="228"/>
-      <c r="D55" s="234"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="61"/>
-    </row>
-    <row r="56" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A56" s="225"/>
-      <c r="B56" s="225" t="s">
-        <v>236</v>
-      </c>
-      <c r="C56" s="226"/>
-      <c r="D56" s="227"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="67"/>
-    </row>
-    <row r="57" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A57" s="58">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B59" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="C59" s="51"/>
+      <c r="D59" s="234"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="60"/>
+    </row>
+    <row r="60" spans="1:9" s="48" customFormat="1" ht="51">
+      <c r="A60" s="59">
+        <f t="shared" ca="1" si="2"/>
         <v>35</v>
       </c>
-      <c r="B57" s="52" t="s">
-        <v>237</v>
-      </c>
-      <c r="C57" s="52"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="62"/>
-    </row>
-    <row r="58" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A58" s="62">
-        <f t="shared" ref="A58:A59" ca="1" si="1">IF(OFFSET(A58,-1,0) ="",OFFSET(A58,-2,0)+1,OFFSET(A58,-1,0)+1 )</f>
+      <c r="B60" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60" s="51"/>
+      <c r="D60" s="228" t="s">
+        <v>242</v>
+      </c>
+      <c r="E60" s="52"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="59"/>
+    </row>
+    <row r="61" spans="1:9" s="48" customFormat="1" ht="25.5">
+      <c r="A61" s="59">
+        <f t="shared" ca="1" si="2"/>
         <v>36</v>
       </c>
-      <c r="B58" s="52" t="s">
-        <v>237</v>
-      </c>
-      <c r="C58" s="52"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="62"/>
-    </row>
-    <row r="59" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A59" s="62">
-        <f t="shared" ca="1" si="1"/>
+      <c r="B61" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="C61" s="51"/>
+      <c r="D61" s="228" t="s">
+        <v>263</v>
+      </c>
+      <c r="E61" s="52"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="59"/>
+    </row>
+    <row r="62" spans="1:9" s="48" customFormat="1" ht="25.5">
+      <c r="A62" s="59">
+        <f t="shared" ca="1" si="2"/>
         <v>37</v>
       </c>
-      <c r="B59" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="C59" s="52"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="52"/>
-      <c r="I59" s="62"/>
-    </row>
-    <row r="60" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A60" s="75"/>
-      <c r="B60" s="235" t="s">
-        <v>240</v>
-      </c>
-      <c r="C60" s="236"/>
-      <c r="D60" s="237"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="67"/>
-    </row>
-    <row r="61" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A61" s="62">
-        <f t="shared" ref="A61:A114" ca="1" si="2">IF(OFFSET(A61,-1,0) ="",OFFSET(A61,-2,0)+1,OFFSET(A61,-1,0)+1 )</f>
+      <c r="B62" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="C62" s="51"/>
+      <c r="D62" s="228" t="s">
+        <v>264</v>
+      </c>
+      <c r="E62" s="57"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="59"/>
+    </row>
+    <row r="63" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A63" s="59">
+        <f t="shared" ca="1" si="2"/>
         <v>38</v>
       </c>
-      <c r="B61" s="52" t="s">
-        <v>241</v>
-      </c>
-      <c r="C61" s="52"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="62"/>
-    </row>
-    <row r="62" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A62" s="62">
+      <c r="B63" s="51"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="228"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="59"/>
+    </row>
+    <row r="64" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A64" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>39</v>
       </c>
-      <c r="B62" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="C62" s="228"/>
-      <c r="D62" s="238"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="62"/>
-    </row>
-    <row r="63" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A63" s="62">
+      <c r="B64" s="51"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="228"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="59"/>
+    </row>
+    <row r="65" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A65" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>40</v>
       </c>
-      <c r="B63" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="C63" s="228"/>
-      <c r="D63" s="238"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="62"/>
-    </row>
-    <row r="64" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A64" s="62">
-        <f t="shared" ca="1" si="2"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="228"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="59"/>
+    </row>
+    <row r="66" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A66" s="59">
+        <f ca="1">IF(OFFSET(A66,-1,0) ="",OFFSET(A66,-2,0)+1,OFFSET(A66,-1,0)+1 )</f>
         <v>41</v>
       </c>
-      <c r="B64" s="52" t="s">
-        <v>244</v>
-      </c>
-      <c r="C64" s="228"/>
-      <c r="D64" s="238"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="62"/>
-    </row>
-    <row r="65" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A65" s="62">
+      <c r="B66" s="51"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="228"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="59"/>
+    </row>
+    <row r="67" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A67" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>42</v>
       </c>
-      <c r="B65" s="232" t="s">
-        <v>245</v>
-      </c>
-      <c r="C65" s="228"/>
-      <c r="D65" s="238"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="62"/>
-    </row>
-    <row r="66" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A66" s="62">
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="236"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="51"/>
+      <c r="I67" s="59"/>
+    </row>
+    <row r="68" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A68" s="72"/>
+      <c r="B68" s="196"/>
+      <c r="C68" s="197"/>
+      <c r="D68" s="198"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="61"/>
+      <c r="I68" s="64"/>
+    </row>
+    <row r="69" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A69" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>43</v>
       </c>
-      <c r="B66" s="232" t="s">
-        <v>246</v>
-      </c>
-      <c r="C66" s="228"/>
-      <c r="D66" s="238"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="62"/>
-    </row>
-    <row r="67" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A67" s="75"/>
-      <c r="B67" s="235" t="s">
-        <v>247</v>
-      </c>
-      <c r="C67" s="236"/>
-      <c r="D67" s="237"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="64"/>
-      <c r="I67" s="67"/>
-    </row>
-    <row r="68" spans="1:9" s="49" customFormat="1" ht="14.25">
-      <c r="A68" s="63">
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="234"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="59"/>
+    </row>
+    <row r="70" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A70" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>44</v>
       </c>
-      <c r="B68" s="52" t="s">
-        <v>248</v>
-      </c>
-      <c r="C68" s="52"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="52"/>
-      <c r="I68" s="63"/>
-    </row>
-    <row r="69" spans="1:9" s="48" customFormat="1" ht="25.5">
-      <c r="A69" s="62">
+      <c r="B70" s="51"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="228"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="59"/>
+    </row>
+    <row r="71" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A71" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>45</v>
       </c>
-      <c r="B69" s="52" t="s">
-        <v>249</v>
-      </c>
-      <c r="C69" s="52"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="62"/>
-    </row>
-    <row r="70" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A70" s="62">
+      <c r="B71" s="51"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="228"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="51"/>
+      <c r="I71" s="59"/>
+    </row>
+    <row r="72" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A72" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>46</v>
       </c>
-      <c r="B70" s="52" t="s">
-        <v>250</v>
-      </c>
-      <c r="C70" s="52"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
-      <c r="H70" s="52"/>
-      <c r="I70" s="62"/>
-    </row>
-    <row r="71" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A71" s="62">
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="228"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="51"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="59"/>
+    </row>
+    <row r="73" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A73" s="72"/>
+      <c r="B73" s="196"/>
+      <c r="C73" s="197"/>
+      <c r="D73" s="198"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="64"/>
+    </row>
+    <row r="74" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A74" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>47</v>
       </c>
-      <c r="B71" s="52" t="s">
-        <v>251</v>
-      </c>
-      <c r="C71" s="52"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="52"/>
-      <c r="I71" s="62"/>
-    </row>
-    <row r="72" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A72" s="62">
+      <c r="B74" s="51"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="234"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="59"/>
+    </row>
+    <row r="75" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A75" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>48</v>
       </c>
-      <c r="B72" s="52"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="62"/>
-    </row>
-    <row r="73" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A73" s="62">
+      <c r="B75" s="51"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="228"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="51"/>
+      <c r="I75" s="59"/>
+    </row>
+    <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A76" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>49</v>
       </c>
-      <c r="B73" s="52"/>
-      <c r="C73" s="52"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
-      <c r="H73" s="52"/>
-      <c r="I73" s="62"/>
-    </row>
-    <row r="74" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A74" s="62">
+      <c r="B76" s="51"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="236"/>
+      <c r="E76" s="52"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="59"/>
+    </row>
+    <row r="77" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A77" s="72"/>
+      <c r="B77" s="196"/>
+      <c r="C77" s="197"/>
+      <c r="D77" s="198"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="61"/>
+      <c r="I77" s="64"/>
+    </row>
+    <row r="78" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A78" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>50</v>
       </c>
-      <c r="B74" s="52"/>
-      <c r="C74" s="52"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="52"/>
-      <c r="G74" s="52"/>
-      <c r="H74" s="52"/>
-      <c r="I74" s="62"/>
-    </row>
-    <row r="75" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A75" s="62">
-        <f ca="1">IF(OFFSET(A75,-1,0) ="",OFFSET(A75,-2,0)+1,OFFSET(A75,-1,0)+1 )</f>
+      <c r="B78" s="51"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="234"/>
+      <c r="E78" s="52"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="59"/>
+    </row>
+    <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A79" s="59">
+        <f t="shared" ca="1" si="2"/>
         <v>51</v>
       </c>
-      <c r="B75" s="52"/>
-      <c r="C75" s="52"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="52"/>
-      <c r="G75" s="52"/>
-      <c r="H75" s="52"/>
-      <c r="I75" s="62"/>
-    </row>
-    <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A76" s="62">
+      <c r="B79" s="51"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="228"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="51"/>
+      <c r="G79" s="51"/>
+      <c r="H79" s="51"/>
+      <c r="I79" s="59"/>
+    </row>
+    <row r="80" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A80" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>52</v>
       </c>
-      <c r="B76" s="52"/>
-      <c r="C76" s="52"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="52"/>
-      <c r="G76" s="52"/>
-      <c r="H76" s="52"/>
-      <c r="I76" s="62"/>
-    </row>
-    <row r="77" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A77" s="75"/>
-      <c r="B77" s="190"/>
-      <c r="C77" s="191"/>
-      <c r="D77" s="192"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="64"/>
-      <c r="H77" s="64"/>
-      <c r="I77" s="67"/>
-    </row>
-    <row r="78" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A78" s="62">
+      <c r="B80" s="51"/>
+      <c r="C80" s="51"/>
+      <c r="D80" s="228"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="51"/>
+      <c r="G80" s="51"/>
+      <c r="H80" s="51"/>
+      <c r="I80" s="59"/>
+    </row>
+    <row r="81" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A81" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>53</v>
       </c>
-      <c r="B78" s="52"/>
-      <c r="C78" s="52"/>
-      <c r="D78" s="53"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="52"/>
-      <c r="G78" s="52"/>
-      <c r="H78" s="52"/>
-      <c r="I78" s="62"/>
-    </row>
-    <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A79" s="62">
+      <c r="B81" s="51"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="228"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="51"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="59"/>
+    </row>
+    <row r="82" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A82" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>54</v>
       </c>
-      <c r="B79" s="52"/>
-      <c r="C79" s="52"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="52"/>
-      <c r="G79" s="52"/>
-      <c r="H79" s="52"/>
-      <c r="I79" s="62"/>
-    </row>
-    <row r="80" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A80" s="62">
+      <c r="B82" s="51"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="228"/>
+      <c r="E82" s="52"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="51"/>
+      <c r="I82" s="59"/>
+    </row>
+    <row r="83" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A83" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>55</v>
       </c>
-      <c r="B80" s="52"/>
-      <c r="C80" s="52"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="54"/>
-      <c r="F80" s="52"/>
-      <c r="G80" s="52"/>
-      <c r="H80" s="52"/>
-      <c r="I80" s="62"/>
-    </row>
-    <row r="81" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A81" s="62">
+      <c r="B83" s="51"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="228"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="51"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="51"/>
+      <c r="I83" s="59"/>
+    </row>
+    <row r="84" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A84" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>56</v>
       </c>
-      <c r="B81" s="52"/>
-      <c r="C81" s="52"/>
-      <c r="D81" s="54"/>
-      <c r="E81" s="54"/>
-      <c r="F81" s="52"/>
-      <c r="G81" s="52"/>
-      <c r="H81" s="52"/>
-      <c r="I81" s="62"/>
-    </row>
-    <row r="82" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A82" s="75"/>
-      <c r="B82" s="190"/>
-      <c r="C82" s="191"/>
-      <c r="D82" s="192"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="64"/>
-      <c r="G82" s="64"/>
-      <c r="H82" s="64"/>
-      <c r="I82" s="67"/>
-    </row>
-    <row r="83" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A83" s="62">
+      <c r="B84" s="51"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="236"/>
+      <c r="E84" s="52"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="59"/>
+    </row>
+    <row r="85" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A85" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>57</v>
       </c>
-      <c r="B83" s="52"/>
-      <c r="C83" s="52"/>
-      <c r="D83" s="53"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="52"/>
-      <c r="G83" s="52"/>
-      <c r="H83" s="52"/>
-      <c r="I83" s="62"/>
-    </row>
-    <row r="84" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A84" s="62">
+      <c r="B85" s="51"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="236"/>
+      <c r="E85" s="52"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="51"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="59"/>
+    </row>
+    <row r="86" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A86" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>58</v>
       </c>
-      <c r="B84" s="52"/>
-      <c r="C84" s="52"/>
-      <c r="D84" s="54"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="52"/>
-      <c r="G84" s="52"/>
-      <c r="H84" s="52"/>
-      <c r="I84" s="62"/>
-    </row>
-    <row r="85" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A85" s="62">
+      <c r="B86" s="51"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="236"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="51"/>
+      <c r="G86" s="51"/>
+      <c r="H86" s="51"/>
+      <c r="I86" s="59"/>
+    </row>
+    <row r="87" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A87" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>59</v>
       </c>
-      <c r="B85" s="52"/>
-      <c r="C85" s="52"/>
-      <c r="D85" s="60"/>
-      <c r="E85" s="54"/>
-      <c r="F85" s="52"/>
-      <c r="G85" s="52"/>
-      <c r="H85" s="52"/>
-      <c r="I85" s="62"/>
-    </row>
-    <row r="86" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A86" s="75"/>
-      <c r="B86" s="190"/>
-      <c r="C86" s="191"/>
-      <c r="D86" s="192"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="64"/>
-      <c r="G86" s="64"/>
-      <c r="H86" s="64"/>
-      <c r="I86" s="67"/>
-    </row>
-    <row r="87" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A87" s="62">
+      <c r="B87" s="51"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="228"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="59"/>
+    </row>
+    <row r="88" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A88" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>60</v>
       </c>
-      <c r="B87" s="52"/>
-      <c r="C87" s="52"/>
-      <c r="D87" s="53"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="52"/>
-      <c r="G87" s="52"/>
-      <c r="H87" s="52"/>
-      <c r="I87" s="62"/>
-    </row>
-    <row r="88" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A88" s="62">
+      <c r="B88" s="51"/>
+      <c r="C88" s="51"/>
+      <c r="D88" s="228"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="51"/>
+      <c r="G88" s="51"/>
+      <c r="H88" s="51"/>
+      <c r="I88" s="59"/>
+    </row>
+    <row r="89" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A89" s="72"/>
+      <c r="B89" s="196"/>
+      <c r="C89" s="197"/>
+      <c r="D89" s="198"/>
+      <c r="E89" s="64"/>
+      <c r="F89" s="61"/>
+      <c r="G89" s="61"/>
+      <c r="H89" s="61"/>
+      <c r="I89" s="64"/>
+    </row>
+    <row r="90" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A90" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>61</v>
       </c>
-      <c r="B88" s="52"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="52"/>
-      <c r="G88" s="52"/>
-      <c r="H88" s="52"/>
-      <c r="I88" s="62"/>
-    </row>
-    <row r="89" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A89" s="62">
+      <c r="B90" s="51"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="234"/>
+      <c r="E90" s="52"/>
+      <c r="F90" s="51"/>
+      <c r="G90" s="51"/>
+      <c r="H90" s="51"/>
+      <c r="I90" s="59"/>
+    </row>
+    <row r="91" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A91" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>62</v>
       </c>
-      <c r="B89" s="52"/>
-      <c r="C89" s="52"/>
-      <c r="D89" s="54"/>
-      <c r="E89" s="60"/>
-      <c r="F89" s="52"/>
-      <c r="G89" s="52"/>
-      <c r="H89" s="52"/>
-      <c r="I89" s="62"/>
-    </row>
-    <row r="90" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A90" s="62">
+      <c r="B91" s="51"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="236"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="51"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="51"/>
+      <c r="I91" s="59"/>
+    </row>
+    <row r="92" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A92" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>63</v>
       </c>
-      <c r="B90" s="52"/>
-      <c r="C90" s="52"/>
-      <c r="D90" s="54"/>
-      <c r="E90" s="60"/>
-      <c r="F90" s="52"/>
-      <c r="G90" s="52"/>
-      <c r="H90" s="52"/>
-      <c r="I90" s="62"/>
-    </row>
-    <row r="91" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A91" s="62">
+      <c r="B92" s="51"/>
+      <c r="C92" s="51"/>
+      <c r="D92" s="236"/>
+      <c r="E92" s="57"/>
+      <c r="F92" s="51"/>
+      <c r="G92" s="51"/>
+      <c r="H92" s="51"/>
+      <c r="I92" s="59"/>
+    </row>
+    <row r="93" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A93" s="72"/>
+      <c r="B93" s="196"/>
+      <c r="C93" s="197"/>
+      <c r="D93" s="198"/>
+      <c r="E93" s="64"/>
+      <c r="F93" s="61"/>
+      <c r="G93" s="61"/>
+      <c r="H93" s="61"/>
+      <c r="I93" s="64"/>
+    </row>
+    <row r="94" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A94" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>64</v>
       </c>
-      <c r="B91" s="52"/>
-      <c r="C91" s="52"/>
-      <c r="D91" s="54"/>
-      <c r="E91" s="54"/>
-      <c r="F91" s="52"/>
-      <c r="G91" s="52"/>
-      <c r="H91" s="52"/>
-      <c r="I91" s="62"/>
-    </row>
-    <row r="92" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A92" s="62">
+      <c r="B94" s="51"/>
+      <c r="C94" s="51"/>
+      <c r="D94" s="228"/>
+      <c r="E94" s="52"/>
+      <c r="F94" s="51"/>
+      <c r="G94" s="51"/>
+      <c r="H94" s="51"/>
+      <c r="I94" s="59"/>
+    </row>
+    <row r="95" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A95" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>65</v>
       </c>
-      <c r="B92" s="52"/>
-      <c r="C92" s="52"/>
-      <c r="D92" s="54"/>
-      <c r="E92" s="54"/>
-      <c r="F92" s="52"/>
-      <c r="G92" s="52"/>
-      <c r="H92" s="52"/>
-      <c r="I92" s="62"/>
-    </row>
-    <row r="93" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A93" s="62">
+      <c r="B95" s="51"/>
+      <c r="C95" s="51"/>
+      <c r="D95" s="228"/>
+      <c r="E95" s="52"/>
+      <c r="F95" s="51"/>
+      <c r="G95" s="51"/>
+      <c r="H95" s="51"/>
+      <c r="I95" s="59"/>
+    </row>
+    <row r="96" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A96" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>66</v>
       </c>
-      <c r="B93" s="52"/>
-      <c r="C93" s="52"/>
-      <c r="D93" s="60"/>
-      <c r="E93" s="54"/>
-      <c r="F93" s="52"/>
-      <c r="G93" s="52"/>
-      <c r="H93" s="52"/>
-      <c r="I93" s="62"/>
-    </row>
-    <row r="94" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A94" s="62">
+      <c r="B96" s="51"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="228"/>
+      <c r="E96" s="52"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="51"/>
+      <c r="I96" s="59"/>
+    </row>
+    <row r="97" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A97" s="72"/>
+      <c r="B97" s="196"/>
+      <c r="C97" s="197"/>
+      <c r="D97" s="198"/>
+      <c r="E97" s="64"/>
+      <c r="F97" s="61"/>
+      <c r="G97" s="61"/>
+      <c r="H97" s="61"/>
+      <c r="I97" s="64"/>
+    </row>
+    <row r="98" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A98" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>67</v>
       </c>
-      <c r="B94" s="52"/>
-      <c r="C94" s="52"/>
-      <c r="D94" s="60"/>
-      <c r="E94" s="54"/>
-      <c r="F94" s="52"/>
-      <c r="G94" s="52"/>
-      <c r="H94" s="52"/>
-      <c r="I94" s="62"/>
-    </row>
-    <row r="95" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A95" s="62">
+      <c r="B98" s="51"/>
+      <c r="C98" s="51"/>
+      <c r="D98" s="228"/>
+      <c r="E98" s="57"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="51"/>
+      <c r="I98" s="59"/>
+    </row>
+    <row r="99" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A99" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>68</v>
       </c>
-      <c r="B95" s="52"/>
-      <c r="C95" s="52"/>
-      <c r="D95" s="60"/>
-      <c r="E95" s="54"/>
-      <c r="F95" s="52"/>
-      <c r="G95" s="52"/>
-      <c r="H95" s="52"/>
-      <c r="I95" s="62"/>
-    </row>
-    <row r="96" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A96" s="62">
+      <c r="B99" s="51"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="236"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="51"/>
+      <c r="G99" s="51"/>
+      <c r="H99" s="51"/>
+      <c r="I99" s="59"/>
+    </row>
+    <row r="100" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A100" s="72"/>
+      <c r="B100" s="196"/>
+      <c r="C100" s="197"/>
+      <c r="D100" s="198"/>
+      <c r="E100" s="64"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="61"/>
+      <c r="H100" s="61"/>
+      <c r="I100" s="64"/>
+    </row>
+    <row r="101" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A101" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>69</v>
       </c>
-      <c r="B96" s="52"/>
-      <c r="C96" s="52"/>
-      <c r="D96" s="54"/>
-      <c r="E96" s="60"/>
-      <c r="F96" s="52"/>
-      <c r="G96" s="52"/>
-      <c r="H96" s="52"/>
-      <c r="I96" s="62"/>
-    </row>
-    <row r="97" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A97" s="62">
+      <c r="B101" s="51"/>
+      <c r="C101" s="51"/>
+      <c r="D101" s="234"/>
+      <c r="E101" s="52"/>
+      <c r="F101" s="51"/>
+      <c r="G101" s="51"/>
+      <c r="H101" s="51"/>
+      <c r="I101" s="59"/>
+    </row>
+    <row r="102" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A102" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>70</v>
       </c>
-      <c r="B97" s="52"/>
-      <c r="C97" s="52"/>
-      <c r="D97" s="54"/>
-      <c r="E97" s="60"/>
-      <c r="F97" s="52"/>
-      <c r="G97" s="52"/>
-      <c r="H97" s="52"/>
-      <c r="I97" s="62"/>
-    </row>
-    <row r="98" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A98" s="75"/>
-      <c r="B98" s="190"/>
-      <c r="C98" s="191"/>
-      <c r="D98" s="192"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="64"/>
-      <c r="G98" s="64"/>
-      <c r="H98" s="64"/>
-      <c r="I98" s="67"/>
-    </row>
-    <row r="99" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A99" s="62">
+      <c r="B102" s="51"/>
+      <c r="C102" s="51"/>
+      <c r="D102" s="236"/>
+      <c r="E102" s="52"/>
+      <c r="F102" s="51"/>
+      <c r="G102" s="51"/>
+      <c r="H102" s="51"/>
+      <c r="I102" s="59"/>
+    </row>
+    <row r="103" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A103" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>71</v>
       </c>
-      <c r="B99" s="52"/>
-      <c r="C99" s="52"/>
-      <c r="D99" s="53"/>
-      <c r="E99" s="54"/>
-      <c r="F99" s="52"/>
-      <c r="G99" s="52"/>
-      <c r="H99" s="52"/>
-      <c r="I99" s="62"/>
-    </row>
-    <row r="100" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A100" s="62">
+      <c r="B103" s="51"/>
+      <c r="C103" s="51"/>
+      <c r="D103" s="236"/>
+      <c r="E103" s="52"/>
+      <c r="F103" s="51"/>
+      <c r="G103" s="51"/>
+      <c r="H103" s="51"/>
+      <c r="I103" s="59"/>
+    </row>
+    <row r="104" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A104" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>72</v>
       </c>
-      <c r="B100" s="52"/>
-      <c r="C100" s="52"/>
-      <c r="D100" s="60"/>
-      <c r="E100" s="60"/>
-      <c r="F100" s="52"/>
-      <c r="G100" s="52"/>
-      <c r="H100" s="52"/>
-      <c r="I100" s="62"/>
-    </row>
-    <row r="101" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A101" s="62">
+      <c r="B104" s="51"/>
+      <c r="C104" s="51"/>
+      <c r="D104" s="236"/>
+      <c r="E104" s="52"/>
+      <c r="F104" s="51"/>
+      <c r="G104" s="51"/>
+      <c r="H104" s="51"/>
+      <c r="I104" s="59"/>
+    </row>
+    <row r="105" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A105" s="59">
         <f t="shared" ca="1" si="2"/>
         <v>73</v>
       </c>
-      <c r="B101" s="52"/>
-      <c r="C101" s="52"/>
-      <c r="D101" s="60"/>
-      <c r="E101" s="60"/>
-      <c r="F101" s="52"/>
-      <c r="G101" s="52"/>
-      <c r="H101" s="52"/>
-      <c r="I101" s="62"/>
-    </row>
-    <row r="102" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A102" s="75"/>
-      <c r="B102" s="190"/>
-      <c r="C102" s="191"/>
-      <c r="D102" s="192"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="64"/>
-      <c r="G102" s="64"/>
-      <c r="H102" s="64"/>
-      <c r="I102" s="67"/>
-    </row>
-    <row r="103" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A103" s="62">
-        <f t="shared" ca="1" si="2"/>
-        <v>74</v>
-      </c>
-      <c r="B103" s="52"/>
-      <c r="C103" s="52"/>
-      <c r="D103" s="54"/>
-      <c r="E103" s="54"/>
-      <c r="F103" s="52"/>
-      <c r="G103" s="52"/>
-      <c r="H103" s="52"/>
-      <c r="I103" s="62"/>
-    </row>
-    <row r="104" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A104" s="62">
-        <f t="shared" ca="1" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="B104" s="52"/>
-      <c r="C104" s="52"/>
-      <c r="D104" s="54"/>
-      <c r="E104" s="54"/>
-      <c r="F104" s="52"/>
-      <c r="G104" s="52"/>
-      <c r="H104" s="52"/>
-      <c r="I104" s="62"/>
-    </row>
-    <row r="105" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A105" s="62">
-        <f t="shared" ca="1" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="B105" s="52"/>
-      <c r="C105" s="52"/>
-      <c r="D105" s="54"/>
-      <c r="E105" s="54"/>
-      <c r="F105" s="52"/>
-      <c r="G105" s="52"/>
-      <c r="H105" s="52"/>
-      <c r="I105" s="62"/>
-    </row>
-    <row r="106" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A106" s="75"/>
-      <c r="B106" s="190"/>
-      <c r="C106" s="191"/>
-      <c r="D106" s="192"/>
-      <c r="E106" s="67"/>
-      <c r="F106" s="64"/>
-      <c r="G106" s="64"/>
-      <c r="H106" s="64"/>
-      <c r="I106" s="67"/>
-    </row>
-    <row r="107" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A107" s="62">
-        <f t="shared" ca="1" si="2"/>
-        <v>77</v>
-      </c>
-      <c r="B107" s="52"/>
-      <c r="C107" s="52"/>
-      <c r="D107" s="54"/>
-      <c r="E107" s="60"/>
-      <c r="F107" s="52"/>
-      <c r="G107" s="52"/>
-      <c r="H107" s="52"/>
-      <c r="I107" s="62"/>
-    </row>
-    <row r="108" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A108" s="62">
-        <f t="shared" ca="1" si="2"/>
-        <v>78</v>
-      </c>
-      <c r="B108" s="52"/>
-      <c r="C108" s="52"/>
-      <c r="D108" s="60"/>
-      <c r="E108" s="60"/>
-      <c r="F108" s="52"/>
-      <c r="G108" s="52"/>
-      <c r="H108" s="52"/>
-      <c r="I108" s="62"/>
-    </row>
-    <row r="109" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A109" s="75"/>
-      <c r="B109" s="190"/>
-      <c r="C109" s="191"/>
-      <c r="D109" s="192"/>
-      <c r="E109" s="67"/>
-      <c r="F109" s="64"/>
-      <c r="G109" s="64"/>
-      <c r="H109" s="64"/>
-      <c r="I109" s="67"/>
-    </row>
-    <row r="110" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A110" s="62">
-        <f t="shared" ca="1" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="B110" s="52"/>
-      <c r="C110" s="52"/>
-      <c r="D110" s="53"/>
-      <c r="E110" s="54"/>
-      <c r="F110" s="52"/>
-      <c r="G110" s="52"/>
-      <c r="H110" s="52"/>
-      <c r="I110" s="62"/>
-    </row>
-    <row r="111" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A111" s="62">
-        <f t="shared" ca="1" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="B111" s="52"/>
-      <c r="C111" s="52"/>
-      <c r="D111" s="60"/>
-      <c r="E111" s="54"/>
-      <c r="F111" s="52"/>
-      <c r="G111" s="52"/>
-      <c r="H111" s="52"/>
-      <c r="I111" s="62"/>
-    </row>
-    <row r="112" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A112" s="62">
-        <f t="shared" ca="1" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="B112" s="52"/>
-      <c r="C112" s="52"/>
-      <c r="D112" s="60"/>
-      <c r="E112" s="54"/>
-      <c r="F112" s="52"/>
-      <c r="G112" s="52"/>
-      <c r="H112" s="52"/>
-      <c r="I112" s="62"/>
-    </row>
-    <row r="113" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A113" s="62">
-        <f t="shared" ca="1" si="2"/>
-        <v>82</v>
-      </c>
-      <c r="B113" s="52"/>
-      <c r="C113" s="52"/>
-      <c r="D113" s="60"/>
-      <c r="E113" s="54"/>
-      <c r="F113" s="52"/>
-      <c r="G113" s="52"/>
-      <c r="H113" s="52"/>
-      <c r="I113" s="62"/>
-    </row>
-    <row r="114" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A114" s="62">
-        <f t="shared" ca="1" si="2"/>
-        <v>83</v>
-      </c>
-      <c r="B114" s="52"/>
-      <c r="C114" s="52"/>
-      <c r="D114" s="60"/>
-      <c r="E114" s="54"/>
-      <c r="F114" s="52"/>
-      <c r="G114" s="52"/>
-      <c r="H114" s="52"/>
-      <c r="I114" s="62"/>
+      <c r="B105" s="51"/>
+      <c r="C105" s="51"/>
+      <c r="D105" s="236"/>
+      <c r="E105" s="52"/>
+      <c r="F105" s="51"/>
+      <c r="G105" s="51"/>
+      <c r="H105" s="51"/>
+      <c r="I105" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="D33:F33"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:H18" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F115:H172" xr:uid="{00000000-0002-0000-0400-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F106:H163" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F19:H114" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F19:H105" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
   </dataValidations>
@@ -6507,1005 +6533,1005 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="77" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="78" customWidth="1"/>
-    <col min="3" max="3" width="19" style="78" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="78" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="78" customWidth="1"/>
-    <col min="6" max="6" width="19" style="78" customWidth="1"/>
-    <col min="7" max="7" width="15" style="80" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" style="80" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" style="80" customWidth="1"/>
-    <col min="10" max="10" width="21" style="80" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="80" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" style="80" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="78" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="78" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" style="78" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="78"/>
+    <col min="1" max="1" width="4" style="74" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="75" customWidth="1"/>
+    <col min="3" max="3" width="19" style="75" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="75" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="75" customWidth="1"/>
+    <col min="6" max="6" width="19" style="75" customWidth="1"/>
+    <col min="7" max="7" width="15" style="77" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" style="77" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" style="77" customWidth="1"/>
+    <col min="10" max="10" width="21" style="77" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="77" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="77" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" style="75" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="75" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" style="75" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15">
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="76" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="82" customFormat="1" ht="26.25">
-      <c r="A2" s="81"/>
-      <c r="C2" s="203" t="s">
+    <row r="2" spans="1:12" s="79" customFormat="1" ht="26.25">
+      <c r="A2" s="78"/>
+      <c r="C2" s="207" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="83" t="s">
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-    </row>
-    <row r="3" spans="1:12" s="82" customFormat="1" ht="23.25">
-      <c r="A3" s="81"/>
-      <c r="C3" s="204" t="s">
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+    </row>
+    <row r="3" spans="1:12" s="79" customFormat="1" ht="23.25">
+      <c r="A3" s="78"/>
+      <c r="C3" s="208" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="204"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="205" t="s">
+      <c r="D3" s="208"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="209" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="205"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="81"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="H4" s="87"/>
-    </row>
-    <row r="5" spans="1:12" s="88" customFormat="1" ht="15">
-      <c r="A5" s="81"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
+      <c r="A4" s="78"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="H4" s="84"/>
+    </row>
+    <row r="5" spans="1:12" s="85" customFormat="1" ht="15">
+      <c r="A5" s="78"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="206" t="s">
+      <c r="B6" s="210" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="206"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="96"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="93"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="157" t="s">
+      <c r="B8" s="154" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="157" t="s">
+      <c r="C8" s="154" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="157" t="s">
+      <c r="D8" s="154" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="157" t="s">
+      <c r="E8" s="154" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="157" t="s">
+      <c r="F8" s="154" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="157" t="s">
+      <c r="G8" s="154" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="157" t="s">
+      <c r="H8" s="154" t="s">
         <v>127</v>
       </c>
-      <c r="I8" s="156" t="s">
+      <c r="I8" s="153" t="s">
         <v>128</v>
       </c>
-      <c r="L8" s="78"/>
-    </row>
-    <row r="9" spans="1:12" s="123" customFormat="1">
-      <c r="A9" s="119"/>
-      <c r="B9" s="120" t="s">
+      <c r="L8" s="75"/>
+    </row>
+    <row r="9" spans="1:12" s="120" customFormat="1">
+      <c r="A9" s="116"/>
+      <c r="B9" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="120" t="s">
+      <c r="E9" s="117" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="120" t="s">
+      <c r="F9" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="H9" s="120" t="s">
+      <c r="H9" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="121"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="98">
+      <c r="A10" s="95">
         <v>1</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="96" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="99" t="s">
+      <c r="D10" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="99" t="s">
+      <c r="E10" s="96" t="s">
         <v>138</v>
       </c>
-      <c r="F10" s="99" t="s">
+      <c r="F10" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="G10" s="99" t="s">
+      <c r="G10" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="H10" s="99" t="s">
+      <c r="H10" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="I10" s="100"/>
-      <c r="L10" s="78"/>
+      <c r="I10" s="97"/>
+      <c r="L10" s="75"/>
     </row>
     <row r="11" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A11" s="98">
+      <c r="A11" s="95">
         <v>2</v>
       </c>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="99" t="s">
+      <c r="D11" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="99" t="s">
+      <c r="E11" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="F11" s="99" t="s">
+      <c r="F11" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="G11" s="99" t="s">
+      <c r="G11" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="H11" s="99" t="s">
+      <c r="H11" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="I11" s="100" t="s">
+      <c r="I11" s="97" t="s">
         <v>145</v>
       </c>
-      <c r="L11" s="78"/>
+      <c r="L11" s="75"/>
     </row>
     <row r="12" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A12" s="98">
+      <c r="A12" s="95">
         <v>3</v>
       </c>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="99" t="s">
+      <c r="D12" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="E12" s="99" t="s">
+      <c r="E12" s="96" t="s">
         <v>138</v>
       </c>
-      <c r="F12" s="99" t="s">
+      <c r="F12" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="G12" s="99" t="s">
+      <c r="G12" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="H12" s="99" t="s">
+      <c r="H12" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="I12" s="100"/>
-      <c r="L12" s="78"/>
+      <c r="I12" s="97"/>
+      <c r="L12" s="75"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
-      <c r="B13" s="101"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="96"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="93"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="206" t="s">
+      <c r="B14" s="210" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="206"/>
-      <c r="D14" s="206"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
+      <c r="C14" s="210"/>
+      <c r="D14" s="210"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="96"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="93"/>
     </row>
     <row r="16" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="157" t="s">
+      <c r="B16" s="154" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="157" t="s">
+      <c r="D16" s="154" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="157" t="s">
+      <c r="E16" s="154" t="s">
         <v>144</v>
       </c>
-      <c r="F16" s="157" t="s">
+      <c r="F16" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="157" t="s">
+      <c r="G16" s="154" t="s">
         <v>152</v>
       </c>
-      <c r="L16" s="78"/>
-    </row>
-    <row r="17" spans="1:12" s="123" customFormat="1" ht="51">
-      <c r="A17" s="119"/>
-      <c r="B17" s="120" t="s">
+      <c r="L16" s="75"/>
+    </row>
+    <row r="17" spans="1:12" s="120" customFormat="1" ht="51">
+      <c r="A17" s="116"/>
+      <c r="B17" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="124" t="s">
+      <c r="C17" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="124" t="s">
+      <c r="D17" s="121" t="s">
         <v>154</v>
       </c>
-      <c r="E17" s="124" t="s">
+      <c r="E17" s="121" t="s">
         <v>155</v>
       </c>
-      <c r="F17" s="124" t="s">
+      <c r="F17" s="121" t="s">
         <v>156</v>
       </c>
-      <c r="G17" s="124" t="s">
+      <c r="G17" s="121" t="s">
         <v>157</v>
       </c>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="98">
+      <c r="A18" s="95">
         <v>1</v>
       </c>
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="102">
+      <c r="C18" s="99">
         <f>'User Story 1'!D11</f>
         <v>0</v>
       </c>
-      <c r="D18" s="102">
+      <c r="D18" s="99">
         <f>'User Story 1'!D12</f>
         <v>0</v>
       </c>
-      <c r="E18" s="102">
+      <c r="E18" s="99">
         <f>'User Story 1'!D14</f>
         <v>0</v>
       </c>
-      <c r="F18" s="102">
+      <c r="F18" s="99">
         <f>'User Story 1'!D13</f>
         <v>0</v>
       </c>
-      <c r="G18" s="102">
+      <c r="G18" s="99">
         <f>'User Story 1'!D15</f>
         <v>0</v>
       </c>
-      <c r="L18" s="78"/>
+      <c r="L18" s="75"/>
     </row>
     <row r="19" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A19" s="98">
+      <c r="A19" s="95">
         <v>2</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="102" t="e">
+      <c r="C19" s="99" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D19" s="102" t="e">
+      <c r="D19" s="99" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E19" s="102" t="e">
+      <c r="E19" s="99" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F19" s="102" t="e">
+      <c r="F19" s="99" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G19" s="102" t="e">
+      <c r="G19" s="99" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L19" s="78"/>
+      <c r="L19" s="75"/>
     </row>
     <row r="20" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A20" s="98">
+      <c r="A20" s="95">
         <v>3</v>
       </c>
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="102" t="e">
+      <c r="C20" s="99" t="e">
         <f>SUM(C18:C19)</f>
         <v>#REF!</v>
       </c>
-      <c r="D20" s="102" t="e">
+      <c r="D20" s="99" t="e">
         <f t="shared" ref="D20:G20" si="0">SUM(D18:D19)</f>
         <v>#REF!</v>
       </c>
-      <c r="E20" s="102" t="e">
+      <c r="E20" s="99" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="F20" s="102" t="e">
+      <c r="F20" s="99" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="G20" s="102" t="e">
+      <c r="G20" s="99" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="L20" s="78"/>
+      <c r="L20" s="75"/>
     </row>
     <row r="21" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A21" s="104"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="118" t="s">
+      <c r="A21" s="101"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="D21" s="117" t="e">
+      <c r="D21" s="114" t="e">
         <f>SUM(C20,D20,G20)/SUM(C20:G20)</f>
         <v>#REF!</v>
       </c>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="L21" s="78"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="L21" s="75"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="B22" s="101"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="96"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="93"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="206" t="s">
+      <c r="B23" s="210" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="206"/>
-      <c r="D23" s="206"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="210"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
     </row>
     <row r="24" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B24" s="94" t="s">
+      <c r="B24" s="91" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="155"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
     </row>
     <row r="25" spans="1:12" ht="15">
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="100" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="96"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="93"/>
     </row>
     <row r="26" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A26" s="97" t="s">
+      <c r="A26" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="157" t="s">
+      <c r="B26" s="154" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="157" t="s">
+      <c r="C26" s="154" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="157" t="s">
+      <c r="D26" s="154" t="s">
         <v>164</v>
       </c>
-      <c r="E26" s="157" t="s">
+      <c r="E26" s="154" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="157" t="s">
+      <c r="F26" s="154" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="207" t="s">
+      <c r="G26" s="211" t="s">
         <v>111</v>
       </c>
-      <c r="H26" s="208"/>
+      <c r="H26" s="212"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="98">
+      <c r="A27" s="95">
         <v>1</v>
       </c>
-      <c r="B27" s="99" t="s">
+      <c r="B27" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="102" t="e">
+      <c r="C27" s="99" t="e">
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Open*")</f>
         <v>#REF!</v>
       </c>
-      <c r="D27" s="102" t="e">
+      <c r="D27" s="99" t="e">
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Resolved*")</f>
         <v>#REF!</v>
       </c>
-      <c r="E27" s="102" t="e">
+      <c r="E27" s="99" t="e">
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Reopened*")</f>
         <v>#REF!</v>
       </c>
-      <c r="F27" s="102" t="e">
+      <c r="F27" s="99" t="e">
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="201"/>
-      <c r="H27" s="202"/>
+      <c r="G27" s="205"/>
+      <c r="H27" s="206"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A28" s="98">
+      <c r="A28" s="95">
         <v>2</v>
       </c>
-      <c r="B28" s="99" t="s">
+      <c r="B28" s="96" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="102" t="e">
+      <c r="C28" s="99" t="e">
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Open*")</f>
         <v>#REF!</v>
       </c>
-      <c r="D28" s="102" t="e">
+      <c r="D28" s="99" t="e">
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Resolved*")</f>
         <v>#REF!</v>
       </c>
-      <c r="E28" s="102" t="e">
+      <c r="E28" s="99" t="e">
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Reopened*")</f>
         <v>#REF!</v>
       </c>
-      <c r="F28" s="102" t="e">
+      <c r="F28" s="99" t="e">
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="201"/>
-      <c r="H28" s="202"/>
+      <c r="G28" s="205"/>
+      <c r="H28" s="206"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A29" s="98">
+      <c r="A29" s="95">
         <v>3</v>
       </c>
-      <c r="B29" s="99" t="s">
+      <c r="B29" s="96" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="102" t="e">
+      <c r="C29" s="99" t="e">
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Open*")</f>
         <v>#REF!</v>
       </c>
-      <c r="D29" s="102" t="e">
+      <c r="D29" s="99" t="e">
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Resolved*")</f>
         <v>#REF!</v>
       </c>
-      <c r="E29" s="102" t="e">
+      <c r="E29" s="99" t="e">
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Reopened*")</f>
         <v>#REF!</v>
       </c>
-      <c r="F29" s="102" t="e">
+      <c r="F29" s="99" t="e">
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="201"/>
-      <c r="H29" s="202"/>
+      <c r="G29" s="205"/>
+      <c r="H29" s="206"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A30" s="98">
+      <c r="A30" s="95">
         <v>4</v>
       </c>
-      <c r="B30" s="99" t="s">
+      <c r="B30" s="96" t="s">
         <v>170</v>
       </c>
-      <c r="C30" s="102" t="e">
+      <c r="C30" s="99" t="e">
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Open*")</f>
         <v>#REF!</v>
       </c>
-      <c r="D30" s="102" t="e">
+      <c r="D30" s="99" t="e">
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Resolved*")</f>
         <v>#REF!</v>
       </c>
-      <c r="E30" s="102" t="e">
+      <c r="E30" s="99" t="e">
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Reopened*")</f>
         <v>#REF!</v>
       </c>
-      <c r="F30" s="102" t="e">
+      <c r="F30" s="99" t="e">
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="201"/>
-      <c r="H30" s="202"/>
+      <c r="G30" s="205"/>
+      <c r="H30" s="206"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A31" s="98"/>
-      <c r="B31" s="97" t="s">
+      <c r="A31" s="95"/>
+      <c r="B31" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="97" t="e">
+      <c r="C31" s="94" t="e">
         <f>SUM(C27:C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D31" s="97">
+      <c r="D31" s="94">
         <v>0</v>
       </c>
-      <c r="E31" s="97">
+      <c r="E31" s="94">
         <v>0</v>
       </c>
-      <c r="F31" s="97" t="e">
+      <c r="F31" s="94" t="e">
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="201"/>
-      <c r="H31" s="202"/>
+      <c r="G31" s="205"/>
+      <c r="H31" s="206"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A32" s="104"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
+      <c r="A32" s="101"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
     </row>
     <row r="33" spans="1:12" ht="15">
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="100" t="s">
         <v>171</v>
       </c>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="96"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="93"/>
     </row>
     <row r="34" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A34" s="97" t="s">
+      <c r="A34" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="157" t="s">
+      <c r="B34" s="154" t="s">
         <v>172</v>
       </c>
-      <c r="C34" s="157" t="s">
+      <c r="C34" s="154" t="s">
         <v>173</v>
       </c>
-      <c r="D34" s="157" t="s">
+      <c r="D34" s="154" t="s">
         <v>174</v>
       </c>
-      <c r="E34" s="157" t="s">
+      <c r="E34" s="154" t="s">
         <v>125</v>
       </c>
-      <c r="F34" s="209" t="s">
+      <c r="F34" s="213" t="s">
         <v>128</v>
       </c>
-      <c r="G34" s="210"/>
-    </row>
-    <row r="35" spans="1:12" s="123" customFormat="1">
-      <c r="A35" s="119"/>
-      <c r="B35" s="120" t="s">
+      <c r="G34" s="214"/>
+    </row>
+    <row r="35" spans="1:12" s="120" customFormat="1">
+      <c r="A35" s="116"/>
+      <c r="B35" s="117" t="s">
         <v>175</v>
       </c>
-      <c r="C35" s="124" t="s">
+      <c r="C35" s="121" t="s">
         <v>176</v>
       </c>
-      <c r="D35" s="124" t="s">
+      <c r="D35" s="121" t="s">
         <v>177</v>
       </c>
-      <c r="E35" s="124" t="s">
+      <c r="E35" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="F35" s="212"/>
-      <c r="G35" s="213"/>
-      <c r="H35" s="122"/>
-      <c r="I35" s="122"/>
-      <c r="J35" s="122"/>
-      <c r="K35" s="122"/>
-      <c r="L35" s="122"/>
+      <c r="F35" s="216"/>
+      <c r="G35" s="217"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="119"/>
+      <c r="J35" s="119"/>
+      <c r="K35" s="119"/>
+      <c r="L35" s="119"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="98">
+      <c r="A36" s="95">
         <v>1</v>
       </c>
-      <c r="B36" s="99" t="s">
+      <c r="B36" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="102" t="s">
+      <c r="C36" s="99" t="s">
         <v>178</v>
       </c>
-      <c r="D36" s="102" t="s">
+      <c r="D36" s="99" t="s">
         <v>170</v>
       </c>
-      <c r="E36" s="102" t="s">
+      <c r="E36" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="201"/>
-      <c r="G36" s="202"/>
+      <c r="F36" s="205"/>
+      <c r="G36" s="206"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A37" s="98">
+      <c r="A37" s="95">
         <v>2</v>
       </c>
-      <c r="B37" s="99" t="s">
+      <c r="B37" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="102" t="s">
+      <c r="C37" s="99" t="s">
         <v>179</v>
       </c>
-      <c r="D37" s="102" t="s">
+      <c r="D37" s="99" t="s">
         <v>170</v>
       </c>
-      <c r="E37" s="102" t="s">
+      <c r="E37" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="201"/>
-      <c r="G37" s="202"/>
+      <c r="F37" s="205"/>
+      <c r="G37" s="206"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A38" s="104"/>
-      <c r="B38" s="105"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
+      <c r="A38" s="101"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="103"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="206" t="s">
+      <c r="B39" s="210" t="s">
         <v>180</v>
       </c>
-      <c r="C39" s="206"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
+      <c r="C39" s="210"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="96"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="93"/>
     </row>
     <row r="41" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A41" s="97" t="s">
+      <c r="A41" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="157" t="s">
+      <c r="B41" s="154" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="211" t="s">
+      <c r="C41" s="215" t="s">
         <v>182</v>
       </c>
-      <c r="D41" s="211"/>
-      <c r="E41" s="211" t="s">
+      <c r="D41" s="215"/>
+      <c r="E41" s="215" t="s">
         <v>183</v>
       </c>
-      <c r="F41" s="211"/>
-      <c r="G41" s="211"/>
-      <c r="H41" s="97" t="s">
+      <c r="F41" s="215"/>
+      <c r="G41" s="215"/>
+      <c r="H41" s="94" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="34.5" customHeight="1">
-      <c r="A42" s="98">
+      <c r="A42" s="95">
         <v>1</v>
       </c>
-      <c r="B42" s="158" t="s">
+      <c r="B42" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="C42" s="214" t="s">
+      <c r="C42" s="218" t="s">
         <v>186</v>
       </c>
-      <c r="D42" s="214"/>
-      <c r="E42" s="214" t="s">
+      <c r="D42" s="218"/>
+      <c r="E42" s="218" t="s">
         <v>187</v>
       </c>
-      <c r="F42" s="214"/>
-      <c r="G42" s="214"/>
-      <c r="H42" s="107"/>
+      <c r="F42" s="218"/>
+      <c r="G42" s="218"/>
+      <c r="H42" s="104"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
-      <c r="A43" s="98">
+      <c r="A43" s="95">
         <v>2</v>
       </c>
-      <c r="B43" s="158" t="s">
+      <c r="B43" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="C43" s="214" t="s">
+      <c r="C43" s="218" t="s">
         <v>186</v>
       </c>
-      <c r="D43" s="214"/>
-      <c r="E43" s="214" t="s">
+      <c r="D43" s="218"/>
+      <c r="E43" s="218" t="s">
         <v>187</v>
       </c>
-      <c r="F43" s="214"/>
-      <c r="G43" s="214"/>
-      <c r="H43" s="107"/>
+      <c r="F43" s="218"/>
+      <c r="G43" s="218"/>
+      <c r="H43" s="104"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
-      <c r="A44" s="98">
+      <c r="A44" s="95">
         <v>3</v>
       </c>
-      <c r="B44" s="158" t="s">
+      <c r="B44" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="C44" s="214" t="s">
+      <c r="C44" s="218" t="s">
         <v>186</v>
       </c>
-      <c r="D44" s="214"/>
-      <c r="E44" s="214" t="s">
+      <c r="D44" s="218"/>
+      <c r="E44" s="218" t="s">
         <v>187</v>
       </c>
-      <c r="F44" s="214"/>
-      <c r="G44" s="214"/>
-      <c r="H44" s="107"/>
+      <c r="F44" s="218"/>
+      <c r="G44" s="218"/>
+      <c r="H44" s="104"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="B45" s="108"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="109"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="96"/>
+      <c r="B45" s="105"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="93"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="206" t="s">
+      <c r="B46" s="210" t="s">
         <v>188</v>
       </c>
-      <c r="C46" s="206"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="93"/>
-      <c r="H46" s="93"/>
+      <c r="C46" s="210"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="90"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="B47" s="94" t="s">
+      <c r="B47" s="91" t="s">
         <v>189</v>
       </c>
-      <c r="C47" s="108"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="96"/>
-    </row>
-    <row r="48" spans="1:12" s="111" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="217" t="s">
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="92"/>
+      <c r="G47" s="93"/>
+    </row>
+    <row r="48" spans="1:12" s="108" customFormat="1" ht="21" customHeight="1">
+      <c r="A48" s="221" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="219" t="s">
+      <c r="B48" s="223" t="s">
         <v>190</v>
       </c>
-      <c r="C48" s="209" t="s">
+      <c r="C48" s="213" t="s">
         <v>191</v>
       </c>
-      <c r="D48" s="221"/>
-      <c r="E48" s="221"/>
-      <c r="F48" s="210"/>
-      <c r="G48" s="222" t="s">
+      <c r="D48" s="225"/>
+      <c r="E48" s="225"/>
+      <c r="F48" s="214"/>
+      <c r="G48" s="226" t="s">
         <v>158</v>
       </c>
-      <c r="H48" s="222" t="s">
+      <c r="H48" s="226" t="s">
         <v>190</v>
       </c>
-      <c r="I48" s="215" t="s">
+      <c r="I48" s="219" t="s">
         <v>192</v>
       </c>
-      <c r="J48" s="110"/>
-      <c r="K48" s="110"/>
-      <c r="L48" s="110"/>
+      <c r="J48" s="107"/>
+      <c r="K48" s="107"/>
+      <c r="L48" s="107"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="218"/>
-      <c r="B49" s="220"/>
-      <c r="C49" s="112" t="s">
+      <c r="A49" s="222"/>
+      <c r="B49" s="224"/>
+      <c r="C49" s="109" t="s">
         <v>167</v>
       </c>
-      <c r="D49" s="112" t="s">
+      <c r="D49" s="109" t="s">
         <v>168</v>
       </c>
-      <c r="E49" s="113" t="s">
+      <c r="E49" s="110" t="s">
         <v>169</v>
       </c>
-      <c r="F49" s="113" t="s">
+      <c r="F49" s="110" t="s">
         <v>170</v>
       </c>
-      <c r="G49" s="223"/>
-      <c r="H49" s="223"/>
-      <c r="I49" s="216"/>
+      <c r="G49" s="227"/>
+      <c r="H49" s="227"/>
+      <c r="I49" s="220"/>
     </row>
     <row r="50" spans="1:9" ht="38.25">
-      <c r="A50" s="218"/>
-      <c r="B50" s="220"/>
-      <c r="C50" s="126" t="s">
+      <c r="A50" s="222"/>
+      <c r="B50" s="224"/>
+      <c r="C50" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="D50" s="126" t="s">
+      <c r="D50" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="E50" s="126" t="s">
+      <c r="E50" s="123" t="s">
         <v>195</v>
       </c>
-      <c r="F50" s="126" t="s">
+      <c r="F50" s="123" t="s">
         <v>196</v>
       </c>
-      <c r="G50" s="125" t="s">
+      <c r="G50" s="122" t="s">
         <v>197</v>
       </c>
-      <c r="H50" s="125" t="s">
+      <c r="H50" s="122" t="s">
         <v>198</v>
       </c>
-      <c r="I50" s="125" t="s">
+      <c r="I50" s="122" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="38.25">
-      <c r="A51" s="98">
+      <c r="A51" s="95">
         <v>1</v>
       </c>
-      <c r="B51" s="119" t="s">
+      <c r="B51" s="116" t="s">
         <v>199</v>
       </c>
-      <c r="C51" s="126" t="s">
+      <c r="C51" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="126" t="s">
+      <c r="D51" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="E51" s="126" t="s">
+      <c r="E51" s="123" t="s">
         <v>195</v>
       </c>
-      <c r="F51" s="126" t="s">
+      <c r="F51" s="123" t="s">
         <v>196</v>
       </c>
-      <c r="G51" s="114" t="s">
+      <c r="G51" s="111" t="s">
         <v>197</v>
       </c>
-      <c r="H51" s="114" t="s">
+      <c r="H51" s="111" t="s">
         <v>198</v>
       </c>
-      <c r="I51" s="114" t="s">
+      <c r="I51" s="111" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="98">
+      <c r="A52" s="95">
         <v>2</v>
       </c>
-      <c r="B52" s="98" t="s">
+      <c r="B52" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="114">
+      <c r="C52" s="111">
         <v>0</v>
       </c>
-      <c r="D52" s="114">
+      <c r="D52" s="111">
         <v>0</v>
       </c>
-      <c r="E52" s="114">
+      <c r="E52" s="111">
         <v>0</v>
       </c>
-      <c r="F52" s="114" t="e">
+      <c r="F52" s="111" t="e">
         <f>SUM(C31:E31)</f>
         <v>#REF!</v>
       </c>
-      <c r="G52" s="127" t="e">
+      <c r="G52" s="124" t="e">
         <f>D21</f>
         <v>#REF!</v>
       </c>
-      <c r="H52" s="114" t="s">
+      <c r="H52" s="111" t="s">
         <v>198</v>
       </c>
-      <c r="I52" s="114" t="s">
+      <c r="I52" s="111" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="18.75" customHeight="1">
-      <c r="B53" s="115"/>
+      <c r="B53" s="112"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="B54" s="116"/>
+      <c r="B54" s="113"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="B55" s="116"/>
+      <c r="B55" s="113"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="B56" s="116"/>
+      <c r="B56" s="113"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="B57" s="116"/>
+      <c r="B57" s="113"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="B58" s="116"/>
+      <c r="B58" s="113"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="B59" s="116"/>
+      <c r="B59" s="113"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="B60" s="116"/>
+      <c r="B60" s="113"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="B61" s="116"/>
+      <c r="B61" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="32">

--- a/MiddleAssignment_LeTuanSang/MiddleAssignment_TestDesign3/TestDesign3_LeTuanSang.xlsx
+++ b/MiddleAssignment_LeTuanSang/MiddleAssignment_TestDesign3/TestDesign3_LeTuanSang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NashTechHomeWork_LeTuanSang\MiddleAssignment_LeTuanSang\MiddleAssignment_TestDesign3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC4CAC6-C90C-4DF4-927E-CD38EB3E3152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EAC5C9-68FA-4E53-9C5A-8624A61B7373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="840" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2816,6 +2816,43 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="22" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2894,6 +2931,15 @@
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2909,15 +2955,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2936,12 +2973,60 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2951,97 +3036,12 @@
     <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="22" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="background" xfId="10" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3802,37 +3802,37 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="168" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="170"/>
+      <c r="B4" s="182"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="183"/>
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="171" t="s">
+      <c r="A5" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="171"/>
-      <c r="C5" s="172" t="s">
+      <c r="B5" s="184"/>
+      <c r="C5" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="185"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A6" s="173" t="s">
+      <c r="A6" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="174"/>
-      <c r="C6" s="167" t="s">
+      <c r="B6" s="187"/>
+      <c r="C6" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="180"/>
       <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
@@ -3844,14 +3844,14 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" s="141" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="165" t="s">
+      <c r="A8" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="166"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="166"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="179"/>
     </row>
     <row r="9" spans="1:6" s="141" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="142" t="s">
@@ -3934,14 +3934,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="141" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="167" t="s">
+      <c r="A13" s="180" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="167"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
+      <c r="B13" s="180"/>
+      <c r="C13" s="180"/>
+      <c r="D13" s="180"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18"/>
@@ -4064,36 +4064,36 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="193" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="178" t="s">
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="178"/>
+      <c r="K2" s="191"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="194" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="179" t="s">
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="147"/>
@@ -4113,65 +4113,65 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="185" t="s">
+      <c r="A7" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="185"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="185"/>
-      <c r="E7" s="185"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="185"/>
-      <c r="H7" s="185"/>
-      <c r="I7" s="185"/>
+      <c r="B7" s="198"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="198"/>
+      <c r="E7" s="198"/>
+      <c r="F7" s="198"/>
+      <c r="G7" s="198"/>
+      <c r="H7" s="198"/>
+      <c r="I7" s="198"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="185"/>
-      <c r="B8" s="185"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="185"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
+      <c r="A8" s="198"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="198"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="185" t="s">
+      <c r="A9" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="185"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="185"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="198"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="198"/>
+      <c r="G9" s="198"/>
+      <c r="H9" s="198"/>
+      <c r="I9" s="198"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="185"/>
-      <c r="B10" s="185"/>
-      <c r="C10" s="185"/>
-      <c r="D10" s="185"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="185"/>
+      <c r="A10" s="198"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="198"/>
+      <c r="I10" s="198"/>
     </row>
     <row r="11" spans="1:11" ht="14.25">
-      <c r="A11" s="186" t="s">
+      <c r="A11" s="199" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="186"/>
-      <c r="C11" s="186"/>
-      <c r="D11" s="186"/>
-      <c r="E11" s="186"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="186"/>
-      <c r="H11" s="186"/>
-      <c r="I11" s="186"/>
+      <c r="B11" s="199"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="199"/>
+      <c r="H11" s="199"/>
+      <c r="I11" s="199"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3"/>
@@ -4193,65 +4193,65 @@
       <c r="A14" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="182" t="s">
+      <c r="B14" s="195" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="183"/>
-      <c r="K14" s="184"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="196"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="196"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="196"/>
+      <c r="K14" s="197"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="182" t="s">
+      <c r="B15" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="183"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="184"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="196"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="196"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="196"/>
+      <c r="K15" s="197"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="129"/>
-      <c r="B16" s="182" t="s">
+      <c r="B16" s="195" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="183"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="183"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="184"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="196"/>
+      <c r="F16" s="196"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="196"/>
+      <c r="K16" s="197"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="129"/>
-      <c r="B17" s="182" t="s">
+      <c r="B17" s="195" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="183"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="183"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="183"/>
-      <c r="K17" s="184"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="196"/>
+      <c r="E17" s="196"/>
+      <c r="F17" s="196"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="196"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="196"/>
+      <c r="K17" s="197"/>
     </row>
     <row r="19" spans="1:14" ht="23.25">
       <c r="A19" s="4" t="s">
@@ -4262,40 +4262,40 @@
       <c r="A20" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="182" t="s">
+      <c r="B20" s="195" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="183"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="183"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="184"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="196"/>
+      <c r="E20" s="196"/>
+      <c r="F20" s="196"/>
+      <c r="G20" s="197"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="182" t="s">
+      <c r="B21" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="183"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="184"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="196"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="197"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="182" t="s">
+      <c r="B22" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="183"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="183"/>
-      <c r="F22" s="183"/>
-      <c r="G22" s="184"/>
+      <c r="C22" s="196"/>
+      <c r="D22" s="196"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="196"/>
+      <c r="G22" s="197"/>
     </row>
     <row r="24" spans="1:14" ht="23.25">
       <c r="A24" s="4" t="s">
@@ -4354,11 +4354,11 @@
       <c r="N27" s="65"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="175" t="s">
+      <c r="B29" s="188" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="176"/>
-      <c r="D29" s="177"/>
+      <c r="C29" s="189"/>
+      <c r="D29" s="190"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="5"/>
@@ -4435,14 +4435,14 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="25.5">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="200" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
+      <c r="B2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10"/>
@@ -4628,12 +4628,12 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="26.25">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="203" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
       <c r="E2" s="150"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -4794,18 +4794,18 @@
       <c r="F14" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="15">
-      <c r="A16" s="188" t="s">
+      <c r="A16" s="201" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="188"/>
+      <c r="B16" s="201"/>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="14.25">
-      <c r="A17" s="189" t="s">
+      <c r="A17" s="202" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="189"/>
+      <c r="B17" s="202"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="33"/>
@@ -4834,8 +4834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4843,7 +4843,7 @@
     <col min="1" max="1" width="11.28515625" style="73" customWidth="1"/>
     <col min="2" max="2" width="65" style="46" customWidth="1"/>
     <col min="3" max="3" width="35.140625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="240" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="177" customWidth="1"/>
     <col min="5" max="5" width="32.140625" style="46" customWidth="1"/>
     <col min="6" max="8" width="9.7109375" style="46" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" style="46" customWidth="1"/>
@@ -4851,10 +4851,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="14.25">
-      <c r="A1" s="191"/>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
+      <c r="A1" s="207"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -4863,13 +4863,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="208" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="203"/>
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="216"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -4878,9 +4878,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="203"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="216"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -4891,11 +4891,11 @@
       <c r="A4" s="134" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="200" t="s">
+      <c r="B4" s="213" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="200"/>
-      <c r="D4" s="200"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -4909,9 +4909,9 @@
       <c r="A5" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
+      <c r="B5" s="212"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -4925,9 +4925,9 @@
       <c r="A6" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="199"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
+      <c r="B6" s="212"/>
+      <c r="C6" s="213"/>
+      <c r="D6" s="213"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -4938,11 +4938,11 @@
       <c r="A7" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="213" t="s">
         <v>201</v>
       </c>
-      <c r="C7" s="200"/>
-      <c r="D7" s="200"/>
+      <c r="C7" s="213"/>
+      <c r="D7" s="213"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -4954,9 +4954,9 @@
       <c r="A8" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="201"/>
-      <c r="C8" s="201"/>
-      <c r="D8" s="201"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="214"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -4971,7 +4971,7 @@
         <f>G17</f>
         <v>Internal build 14112011</v>
       </c>
-      <c r="D9" s="229" t="str">
+      <c r="D9" s="166" t="str">
         <f>H17</f>
         <v>External build 16112011</v>
       </c>
@@ -4988,7 +4988,7 @@
         <f>SUM(C11:C14)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="230">
+      <c r="D10" s="167">
         <f>SUM(D11:D14)</f>
         <v>0</v>
       </c>
@@ -5005,7 +5005,7 @@
         <f>COUNTIF($G$18:$G$49657,"*Passed")</f>
         <v>0</v>
       </c>
-      <c r="D11" s="231">
+      <c r="D11" s="168">
         <f>COUNTIF($H$18:$H$49657,"*Passed")</f>
         <v>0</v>
       </c>
@@ -5022,7 +5022,7 @@
         <f>COUNTIF($G$18:$G$49377,"*Failed*")</f>
         <v>0</v>
       </c>
-      <c r="D12" s="231">
+      <c r="D12" s="168">
         <f>COUNTIF($H$18:$H$49377,"*Failed*")</f>
         <v>0</v>
       </c>
@@ -5039,7 +5039,7 @@
         <f>COUNTIF($G$18:$G$49377,"*Not Run*")</f>
         <v>0</v>
       </c>
-      <c r="D13" s="231">
+      <c r="D13" s="168">
         <f>COUNTIF($H$18:$H$49377,"*Not Run*")</f>
         <v>0</v>
       </c>
@@ -5061,7 +5061,7 @@
         <f>COUNTIF($G$18:$G$49377,"*NA*")</f>
         <v>0</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="168">
         <f>COUNTIF($H$18:$H$49377,"*NA*")</f>
         <v>0</v>
       </c>
@@ -5083,7 +5083,7 @@
         <f>COUNTIF($G$18:$G$49377,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
-      <c r="D15" s="231">
+      <c r="D15" s="168">
         <f>COUNTIF($H$18:$H$49377,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
@@ -5097,13 +5097,13 @@
       <c r="A16" s="71"/>
       <c r="B16" s="50"/>
       <c r="C16" s="50"/>
-      <c r="D16" s="232"/>
+      <c r="D16" s="169"/>
       <c r="E16" s="54"/>
-      <c r="F16" s="202" t="s">
+      <c r="F16" s="215" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="202"/>
-      <c r="H16" s="202"/>
+      <c r="G16" s="215"/>
+      <c r="H16" s="215"/>
       <c r="I16" s="55"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="38.25">
@@ -5116,7 +5116,7 @@
       <c r="C17" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="233" t="s">
+      <c r="D17" s="170" t="s">
         <v>106</v>
       </c>
       <c r="E17" s="138" t="s">
@@ -5137,9 +5137,9 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="62"/>
-      <c r="B18" s="196"/>
-      <c r="C18" s="197"/>
-      <c r="D18" s="198"/>
+      <c r="B18" s="204"/>
+      <c r="C18" s="205"/>
+      <c r="D18" s="206"/>
       <c r="E18" s="62"/>
       <c r="F18" s="63"/>
       <c r="G18" s="63"/>
@@ -5154,7 +5154,7 @@
         <v>223</v>
       </c>
       <c r="C19" s="51"/>
-      <c r="D19" s="234"/>
+      <c r="D19" s="171"/>
       <c r="E19" s="52"/>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
@@ -5167,12 +5167,12 @@
         <v>224</v>
       </c>
       <c r="C20" s="164"/>
-      <c r="D20" s="196"/>
-      <c r="E20" s="197"/>
-      <c r="F20" s="198"/>
-      <c r="G20" s="196"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="198"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="205"/>
+      <c r="F20" s="206"/>
+      <c r="G20" s="204"/>
+      <c r="H20" s="205"/>
+      <c r="I20" s="206"/>
     </row>
     <row r="21" spans="1:9" s="45" customFormat="1">
       <c r="A21" s="56">
@@ -5183,7 +5183,7 @@
         <v>225</v>
       </c>
       <c r="C21" s="51"/>
-      <c r="D21" s="235"/>
+      <c r="D21" s="172"/>
       <c r="E21" s="52"/>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
@@ -5199,7 +5199,7 @@
         <v>253</v>
       </c>
       <c r="C22" s="51"/>
-      <c r="D22" s="228"/>
+      <c r="D22" s="165"/>
       <c r="E22" s="52"/>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
@@ -5215,7 +5215,7 @@
         <v>252</v>
       </c>
       <c r="C23" s="51"/>
-      <c r="D23" s="228" t="s">
+      <c r="D23" s="165" t="s">
         <v>226</v>
       </c>
       <c r="E23" s="52"/>
@@ -5235,7 +5235,7 @@
       <c r="C24" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="D24" s="228" t="s">
+      <c r="D24" s="165" t="s">
         <v>243</v>
       </c>
       <c r="E24" s="52"/>
@@ -5255,7 +5255,7 @@
       <c r="C25" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="D25" s="228" t="s">
+      <c r="D25" s="165" t="s">
         <v>257</v>
       </c>
       <c r="E25" s="52"/>
@@ -5273,7 +5273,7 @@
         <v>250</v>
       </c>
       <c r="C26" s="51"/>
-      <c r="D26" s="228" t="s">
+      <c r="D26" s="165" t="s">
         <v>227</v>
       </c>
       <c r="E26" s="52"/>
@@ -5293,7 +5293,7 @@
       <c r="C27" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="D27" s="228" t="s">
+      <c r="D27" s="165" t="s">
         <v>247</v>
       </c>
       <c r="E27" s="52"/>
@@ -5313,7 +5313,7 @@
       <c r="C28" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="D28" s="228" t="s">
+      <c r="D28" s="165" t="s">
         <v>261</v>
       </c>
       <c r="E28" s="52"/>
@@ -5333,7 +5333,7 @@
       <c r="C29" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="D29" s="228" t="s">
+      <c r="D29" s="165" t="s">
         <v>261</v>
       </c>
       <c r="E29" s="52"/>
@@ -5353,7 +5353,7 @@
       <c r="C30" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="D30" s="228" t="s">
+      <c r="D30" s="165" t="s">
         <v>262</v>
       </c>
       <c r="E30" s="52"/>
@@ -5373,7 +5373,7 @@
       <c r="C31" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="D31" s="228" t="s">
+      <c r="D31" s="165" t="s">
         <v>260</v>
       </c>
       <c r="E31" s="52"/>
@@ -5393,7 +5393,7 @@
       <c r="C32" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="D32" s="228" t="s">
+      <c r="D32" s="165" t="s">
         <v>257</v>
       </c>
       <c r="E32" s="52"/>
@@ -5408,12 +5408,12 @@
         <v>202</v>
       </c>
       <c r="C33" s="164"/>
-      <c r="D33" s="196"/>
-      <c r="E33" s="197"/>
-      <c r="F33" s="198"/>
-      <c r="G33" s="196"/>
-      <c r="H33" s="197"/>
-      <c r="I33" s="198"/>
+      <c r="D33" s="204"/>
+      <c r="E33" s="205"/>
+      <c r="F33" s="206"/>
+      <c r="G33" s="204"/>
+      <c r="H33" s="205"/>
+      <c r="I33" s="206"/>
     </row>
     <row r="34" spans="1:9" s="48" customFormat="1" ht="25.5">
       <c r="A34" s="56">
@@ -5424,7 +5424,7 @@
         <v>207</v>
       </c>
       <c r="C34" s="51"/>
-      <c r="D34" s="228"/>
+      <c r="D34" s="165"/>
       <c r="E34" s="52"/>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
@@ -5440,7 +5440,7 @@
         <v>208</v>
       </c>
       <c r="C35" s="51"/>
-      <c r="D35" s="228"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="52"/>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
@@ -5456,7 +5456,7 @@
         <v>204</v>
       </c>
       <c r="C36" s="51"/>
-      <c r="D36" s="228"/>
+      <c r="D36" s="165"/>
       <c r="E36" s="52"/>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
@@ -5472,7 +5472,7 @@
         <v>205</v>
       </c>
       <c r="C37" s="51"/>
-      <c r="D37" s="228"/>
+      <c r="D37" s="165"/>
       <c r="E37" s="52"/>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
@@ -5485,7 +5485,7 @@
         <v>210</v>
       </c>
       <c r="C38" s="161"/>
-      <c r="D38" s="237"/>
+      <c r="D38" s="174"/>
       <c r="E38" s="161"/>
       <c r="F38" s="161"/>
       <c r="G38" s="161"/>
@@ -5500,7 +5500,7 @@
       <c r="B39" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D39" s="228" t="s">
+      <c r="D39" s="165" t="s">
         <v>269</v>
       </c>
       <c r="E39" s="52"/>
@@ -5518,7 +5518,7 @@
         <v>232</v>
       </c>
       <c r="C40" s="51"/>
-      <c r="D40" s="228" t="s">
+      <c r="D40" s="165" t="s">
         <v>270</v>
       </c>
       <c r="E40" s="52"/>
@@ -5536,7 +5536,7 @@
         <v>211</v>
       </c>
       <c r="C41" s="51"/>
-      <c r="D41" s="228" t="s">
+      <c r="D41" s="165" t="s">
         <v>271</v>
       </c>
       <c r="E41" s="52"/>
@@ -5554,7 +5554,7 @@
         <v>212</v>
       </c>
       <c r="C42" s="51"/>
-      <c r="D42" s="228" t="s">
+      <c r="D42" s="165" t="s">
         <v>271</v>
       </c>
       <c r="E42" s="52"/>
@@ -5569,7 +5569,7 @@
         <v>213</v>
       </c>
       <c r="C43" s="161"/>
-      <c r="D43" s="237"/>
+      <c r="D43" s="174"/>
       <c r="E43" s="161"/>
       <c r="F43" s="161"/>
       <c r="G43" s="161"/>
@@ -5585,7 +5585,7 @@
         <v>229</v>
       </c>
       <c r="C44" s="51"/>
-      <c r="D44" s="228" t="s">
+      <c r="D44" s="165" t="s">
         <v>265</v>
       </c>
       <c r="E44" s="52"/>
@@ -5603,7 +5603,7 @@
         <v>230</v>
       </c>
       <c r="C45" s="51"/>
-      <c r="D45" s="228" t="s">
+      <c r="D45" s="165" t="s">
         <v>266</v>
       </c>
       <c r="E45" s="52"/>
@@ -5621,7 +5621,7 @@
         <v>231</v>
       </c>
       <c r="C46" s="51"/>
-      <c r="D46" s="228" t="s">
+      <c r="D46" s="165" t="s">
         <v>267</v>
       </c>
       <c r="E46" s="52"/>
@@ -5639,7 +5639,7 @@
         <v>214</v>
       </c>
       <c r="C47" s="51"/>
-      <c r="D47" s="238"/>
+      <c r="D47" s="175"/>
       <c r="E47" s="52"/>
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
@@ -5652,7 +5652,7 @@
         <v>215</v>
       </c>
       <c r="C48" s="163"/>
-      <c r="D48" s="239"/>
+      <c r="D48" s="176"/>
       <c r="E48" s="64"/>
       <c r="F48" s="61"/>
       <c r="G48" s="61"/>
@@ -5668,7 +5668,7 @@
         <v>216</v>
       </c>
       <c r="C49" s="51"/>
-      <c r="D49" s="234"/>
+      <c r="D49" s="171"/>
       <c r="E49" s="52"/>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
@@ -5684,7 +5684,7 @@
         <v>217</v>
       </c>
       <c r="C50" s="51"/>
-      <c r="D50" s="236"/>
+      <c r="D50" s="173"/>
       <c r="E50" s="52"/>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
@@ -5693,11 +5693,11 @@
     </row>
     <row r="51" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A51" s="72"/>
-      <c r="B51" s="193" t="s">
+      <c r="B51" s="209" t="s">
         <v>218</v>
       </c>
-      <c r="C51" s="194"/>
-      <c r="D51" s="195"/>
+      <c r="C51" s="210"/>
+      <c r="D51" s="211"/>
       <c r="E51" s="64"/>
       <c r="F51" s="61"/>
       <c r="G51" s="61"/>
@@ -5713,7 +5713,7 @@
         <v>233</v>
       </c>
       <c r="C52" s="51"/>
-      <c r="D52" s="234" t="s">
+      <c r="D52" s="171" t="s">
         <v>273</v>
       </c>
       <c r="E52" s="52"/>
@@ -5731,7 +5731,7 @@
         <v>234</v>
       </c>
       <c r="C53" s="51"/>
-      <c r="D53" s="234" t="s">
+      <c r="D53" s="171" t="s">
         <v>273</v>
       </c>
       <c r="E53" s="52"/>
@@ -5749,7 +5749,7 @@
         <v>235</v>
       </c>
       <c r="C54" s="51"/>
-      <c r="D54" s="234" t="s">
+      <c r="D54" s="171" t="s">
         <v>274</v>
       </c>
       <c r="E54" s="52"/>
@@ -5767,7 +5767,7 @@
         <v>236</v>
       </c>
       <c r="C55" s="51"/>
-      <c r="D55" s="234" t="s">
+      <c r="D55" s="171" t="s">
         <v>275</v>
       </c>
       <c r="E55" s="52"/>
@@ -5785,7 +5785,7 @@
         <v>237</v>
       </c>
       <c r="C56" s="51"/>
-      <c r="D56" s="234" t="s">
+      <c r="D56" s="171" t="s">
         <v>241</v>
       </c>
       <c r="E56" s="52"/>
@@ -5803,7 +5803,7 @@
         <v>238</v>
       </c>
       <c r="C57" s="51"/>
-      <c r="D57" s="234" t="s">
+      <c r="D57" s="171" t="s">
         <v>240</v>
       </c>
       <c r="E57" s="52"/>
@@ -5814,11 +5814,11 @@
     </row>
     <row r="58" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A58" s="72"/>
-      <c r="B58" s="193" t="s">
+      <c r="B58" s="209" t="s">
         <v>219</v>
       </c>
-      <c r="C58" s="194"/>
-      <c r="D58" s="195"/>
+      <c r="C58" s="210"/>
+      <c r="D58" s="211"/>
       <c r="E58" s="64"/>
       <c r="F58" s="61"/>
       <c r="G58" s="61"/>
@@ -5834,7 +5834,7 @@
         <v>239</v>
       </c>
       <c r="C59" s="51"/>
-      <c r="D59" s="234"/>
+      <c r="D59" s="171"/>
       <c r="E59" s="52"/>
       <c r="F59" s="51"/>
       <c r="G59" s="51"/>
@@ -5850,7 +5850,7 @@
         <v>220</v>
       </c>
       <c r="C60" s="51"/>
-      <c r="D60" s="228" t="s">
+      <c r="D60" s="165" t="s">
         <v>242</v>
       </c>
       <c r="E60" s="52"/>
@@ -5868,7 +5868,7 @@
         <v>221</v>
       </c>
       <c r="C61" s="51"/>
-      <c r="D61" s="228" t="s">
+      <c r="D61" s="165" t="s">
         <v>263</v>
       </c>
       <c r="E61" s="52"/>
@@ -5886,7 +5886,7 @@
         <v>222</v>
       </c>
       <c r="C62" s="51"/>
-      <c r="D62" s="228" t="s">
+      <c r="D62" s="165" t="s">
         <v>264</v>
       </c>
       <c r="E62" s="57"/>
@@ -5902,7 +5902,7 @@
       </c>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
-      <c r="D63" s="228"/>
+      <c r="D63" s="165"/>
       <c r="E63" s="52"/>
       <c r="F63" s="51"/>
       <c r="G63" s="51"/>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
-      <c r="D64" s="228"/>
+      <c r="D64" s="165"/>
       <c r="E64" s="52"/>
       <c r="F64" s="51"/>
       <c r="G64" s="51"/>
@@ -5930,7 +5930,7 @@
       </c>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
-      <c r="D65" s="228"/>
+      <c r="D65" s="165"/>
       <c r="E65" s="52"/>
       <c r="F65" s="51"/>
       <c r="G65" s="51"/>
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
-      <c r="D66" s="228"/>
+      <c r="D66" s="165"/>
       <c r="E66" s="52"/>
       <c r="F66" s="51"/>
       <c r="G66" s="51"/>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
-      <c r="D67" s="236"/>
+      <c r="D67" s="173"/>
       <c r="E67" s="52"/>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
@@ -5967,9 +5967,9 @@
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A68" s="72"/>
-      <c r="B68" s="196"/>
-      <c r="C68" s="197"/>
-      <c r="D68" s="198"/>
+      <c r="B68" s="204"/>
+      <c r="C68" s="205"/>
+      <c r="D68" s="206"/>
       <c r="E68" s="64"/>
       <c r="F68" s="61"/>
       <c r="G68" s="61"/>
@@ -5983,7 +5983,7 @@
       </c>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
-      <c r="D69" s="234"/>
+      <c r="D69" s="171"/>
       <c r="E69" s="52"/>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
-      <c r="D70" s="228"/>
+      <c r="D70" s="165"/>
       <c r="E70" s="52"/>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
-      <c r="D71" s="228"/>
+      <c r="D71" s="165"/>
       <c r="E71" s="52"/>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
-      <c r="D72" s="228"/>
+      <c r="D72" s="165"/>
       <c r="E72" s="52"/>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
@@ -6034,9 +6034,9 @@
     </row>
     <row r="73" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A73" s="72"/>
-      <c r="B73" s="196"/>
-      <c r="C73" s="197"/>
-      <c r="D73" s="198"/>
+      <c r="B73" s="204"/>
+      <c r="C73" s="205"/>
+      <c r="D73" s="206"/>
       <c r="E73" s="64"/>
       <c r="F73" s="61"/>
       <c r="G73" s="61"/>
@@ -6050,7 +6050,7 @@
       </c>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
-      <c r="D74" s="234"/>
+      <c r="D74" s="171"/>
       <c r="E74" s="52"/>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
@@ -6064,7 +6064,7 @@
       </c>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
-      <c r="D75" s="228"/>
+      <c r="D75" s="165"/>
       <c r="E75" s="57"/>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
-      <c r="D76" s="236"/>
+      <c r="D76" s="173"/>
       <c r="E76" s="52"/>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
@@ -6087,9 +6087,9 @@
     </row>
     <row r="77" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A77" s="72"/>
-      <c r="B77" s="196"/>
-      <c r="C77" s="197"/>
-      <c r="D77" s="198"/>
+      <c r="B77" s="204"/>
+      <c r="C77" s="205"/>
+      <c r="D77" s="206"/>
       <c r="E77" s="64"/>
       <c r="F77" s="61"/>
       <c r="G77" s="61"/>
@@ -6103,7 +6103,7 @@
       </c>
       <c r="B78" s="51"/>
       <c r="C78" s="51"/>
-      <c r="D78" s="234"/>
+      <c r="D78" s="171"/>
       <c r="E78" s="52"/>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="B79" s="51"/>
       <c r="C79" s="51"/>
-      <c r="D79" s="228"/>
+      <c r="D79" s="165"/>
       <c r="E79" s="57"/>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="B80" s="51"/>
       <c r="C80" s="51"/>
-      <c r="D80" s="228"/>
+      <c r="D80" s="165"/>
       <c r="E80" s="57"/>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
@@ -6145,7 +6145,7 @@
       </c>
       <c r="B81" s="51"/>
       <c r="C81" s="51"/>
-      <c r="D81" s="228"/>
+      <c r="D81" s="165"/>
       <c r="E81" s="57"/>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
@@ -6159,7 +6159,7 @@
       </c>
       <c r="B82" s="51"/>
       <c r="C82" s="51"/>
-      <c r="D82" s="228"/>
+      <c r="D82" s="165"/>
       <c r="E82" s="52"/>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
@@ -6173,7 +6173,7 @@
       </c>
       <c r="B83" s="51"/>
       <c r="C83" s="51"/>
-      <c r="D83" s="228"/>
+      <c r="D83" s="165"/>
       <c r="E83" s="52"/>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
@@ -6187,7 +6187,7 @@
       </c>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
-      <c r="D84" s="236"/>
+      <c r="D84" s="173"/>
       <c r="E84" s="52"/>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
-      <c r="D85" s="236"/>
+      <c r="D85" s="173"/>
       <c r="E85" s="52"/>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
-      <c r="D86" s="236"/>
+      <c r="D86" s="173"/>
       <c r="E86" s="52"/>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
@@ -6229,7 +6229,7 @@
       </c>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
-      <c r="D87" s="228"/>
+      <c r="D87" s="165"/>
       <c r="E87" s="57"/>
       <c r="F87" s="51"/>
       <c r="G87" s="51"/>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
-      <c r="D88" s="228"/>
+      <c r="D88" s="165"/>
       <c r="E88" s="57"/>
       <c r="F88" s="51"/>
       <c r="G88" s="51"/>
@@ -6252,9 +6252,9 @@
     </row>
     <row r="89" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A89" s="72"/>
-      <c r="B89" s="196"/>
-      <c r="C89" s="197"/>
-      <c r="D89" s="198"/>
+      <c r="B89" s="204"/>
+      <c r="C89" s="205"/>
+      <c r="D89" s="206"/>
       <c r="E89" s="64"/>
       <c r="F89" s="61"/>
       <c r="G89" s="61"/>
@@ -6268,7 +6268,7 @@
       </c>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
-      <c r="D90" s="234"/>
+      <c r="D90" s="171"/>
       <c r="E90" s="52"/>
       <c r="F90" s="51"/>
       <c r="G90" s="51"/>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
-      <c r="D91" s="236"/>
+      <c r="D91" s="173"/>
       <c r="E91" s="57"/>
       <c r="F91" s="51"/>
       <c r="G91" s="51"/>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
-      <c r="D92" s="236"/>
+      <c r="D92" s="173"/>
       <c r="E92" s="57"/>
       <c r="F92" s="51"/>
       <c r="G92" s="51"/>
@@ -6305,9 +6305,9 @@
     </row>
     <row r="93" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A93" s="72"/>
-      <c r="B93" s="196"/>
-      <c r="C93" s="197"/>
-      <c r="D93" s="198"/>
+      <c r="B93" s="204"/>
+      <c r="C93" s="205"/>
+      <c r="D93" s="206"/>
       <c r="E93" s="64"/>
       <c r="F93" s="61"/>
       <c r="G93" s="61"/>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="B94" s="51"/>
       <c r="C94" s="51"/>
-      <c r="D94" s="228"/>
+      <c r="D94" s="165"/>
       <c r="E94" s="52"/>
       <c r="F94" s="51"/>
       <c r="G94" s="51"/>
@@ -6335,7 +6335,7 @@
       </c>
       <c r="B95" s="51"/>
       <c r="C95" s="51"/>
-      <c r="D95" s="228"/>
+      <c r="D95" s="165"/>
       <c r="E95" s="52"/>
       <c r="F95" s="51"/>
       <c r="G95" s="51"/>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="B96" s="51"/>
       <c r="C96" s="51"/>
-      <c r="D96" s="228"/>
+      <c r="D96" s="165"/>
       <c r="E96" s="52"/>
       <c r="F96" s="51"/>
       <c r="G96" s="51"/>
@@ -6358,9 +6358,9 @@
     </row>
     <row r="97" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A97" s="72"/>
-      <c r="B97" s="196"/>
-      <c r="C97" s="197"/>
-      <c r="D97" s="198"/>
+      <c r="B97" s="204"/>
+      <c r="C97" s="205"/>
+      <c r="D97" s="206"/>
       <c r="E97" s="64"/>
       <c r="F97" s="61"/>
       <c r="G97" s="61"/>
@@ -6374,7 +6374,7 @@
       </c>
       <c r="B98" s="51"/>
       <c r="C98" s="51"/>
-      <c r="D98" s="228"/>
+      <c r="D98" s="165"/>
       <c r="E98" s="57"/>
       <c r="F98" s="51"/>
       <c r="G98" s="51"/>
@@ -6388,7 +6388,7 @@
       </c>
       <c r="B99" s="51"/>
       <c r="C99" s="51"/>
-      <c r="D99" s="236"/>
+      <c r="D99" s="173"/>
       <c r="E99" s="57"/>
       <c r="F99" s="51"/>
       <c r="G99" s="51"/>
@@ -6397,9 +6397,9 @@
     </row>
     <row r="100" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A100" s="72"/>
-      <c r="B100" s="196"/>
-      <c r="C100" s="197"/>
-      <c r="D100" s="198"/>
+      <c r="B100" s="204"/>
+      <c r="C100" s="205"/>
+      <c r="D100" s="206"/>
       <c r="E100" s="64"/>
       <c r="F100" s="61"/>
       <c r="G100" s="61"/>
@@ -6413,7 +6413,7 @@
       </c>
       <c r="B101" s="51"/>
       <c r="C101" s="51"/>
-      <c r="D101" s="234"/>
+      <c r="D101" s="171"/>
       <c r="E101" s="52"/>
       <c r="F101" s="51"/>
       <c r="G101" s="51"/>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="B102" s="51"/>
       <c r="C102" s="51"/>
-      <c r="D102" s="236"/>
+      <c r="D102" s="173"/>
       <c r="E102" s="52"/>
       <c r="F102" s="51"/>
       <c r="G102" s="51"/>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
-      <c r="D103" s="236"/>
+      <c r="D103" s="173"/>
       <c r="E103" s="52"/>
       <c r="F103" s="51"/>
       <c r="G103" s="51"/>
@@ -6455,7 +6455,7 @@
       </c>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
-      <c r="D104" s="236"/>
+      <c r="D104" s="173"/>
       <c r="E104" s="52"/>
       <c r="F104" s="51"/>
       <c r="G104" s="51"/>
@@ -6469,7 +6469,7 @@
       </c>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
-      <c r="D105" s="236"/>
+      <c r="D105" s="173"/>
       <c r="E105" s="52"/>
       <c r="F105" s="51"/>
       <c r="G105" s="51"/>
@@ -6478,11 +6478,9 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B100:D100"/>
     <mergeCell ref="B73:D73"/>
     <mergeCell ref="B77:D77"/>
@@ -6499,9 +6497,11 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B97:D97"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
@@ -6558,13 +6558,13 @@
     </row>
     <row r="2" spans="1:12" s="79" customFormat="1" ht="26.25">
       <c r="A2" s="78"/>
-      <c r="C2" s="207" t="s">
+      <c r="C2" s="236" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
       <c r="H2" s="80" t="s">
         <v>116</v>
       </c>
@@ -6575,15 +6575,15 @@
     </row>
     <row r="3" spans="1:12" s="79" customFormat="1" ht="23.25">
       <c r="A3" s="78"/>
-      <c r="C3" s="208" t="s">
+      <c r="C3" s="237" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="208"/>
+      <c r="D3" s="237"/>
       <c r="E3" s="151"/>
-      <c r="F3" s="209" t="s">
+      <c r="F3" s="238" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="209"/>
+      <c r="G3" s="238"/>
       <c r="H3" s="81"/>
       <c r="I3" s="81"/>
       <c r="J3" s="82"/>
@@ -6608,10 +6608,10 @@
       <c r="L5" s="87"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="210" t="s">
+      <c r="B6" s="220" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="210"/>
+      <c r="C6" s="220"/>
       <c r="D6" s="89"/>
       <c r="E6" s="89"/>
       <c r="F6" s="89"/>
@@ -6780,11 +6780,11 @@
       <c r="G13" s="93"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="210" t="s">
+      <c r="B14" s="220" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="210"/>
-      <c r="D14" s="210"/>
+      <c r="C14" s="220"/>
+      <c r="D14" s="220"/>
       <c r="E14" s="89"/>
       <c r="F14" s="89"/>
       <c r="G14" s="90"/>
@@ -6960,11 +6960,11 @@
       <c r="G22" s="93"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="210" t="s">
+      <c r="B23" s="220" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="210"/>
-      <c r="D23" s="210"/>
+      <c r="C23" s="220"/>
+      <c r="D23" s="220"/>
       <c r="E23" s="89"/>
       <c r="F23" s="89"/>
       <c r="G23" s="90"/>
@@ -7010,10 +7010,10 @@
       <c r="F26" s="154" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="211" t="s">
+      <c r="G26" s="239" t="s">
         <v>111</v>
       </c>
-      <c r="H26" s="212"/>
+      <c r="H26" s="240"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="95">
@@ -7038,8 +7038,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="205"/>
-      <c r="H27" s="206"/>
+      <c r="G27" s="231"/>
+      <c r="H27" s="232"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="95">
@@ -7064,8 +7064,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="205"/>
-      <c r="H28" s="206"/>
+      <c r="G28" s="231"/>
+      <c r="H28" s="232"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="95">
@@ -7090,8 +7090,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="205"/>
-      <c r="H29" s="206"/>
+      <c r="G29" s="231"/>
+      <c r="H29" s="232"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="95">
@@ -7116,8 +7116,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="205"/>
-      <c r="H30" s="206"/>
+      <c r="G30" s="231"/>
+      <c r="H30" s="232"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="95"/>
@@ -7138,8 +7138,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="205"/>
-      <c r="H31" s="206"/>
+      <c r="G31" s="231"/>
+      <c r="H31" s="232"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="101"/>
@@ -7177,10 +7177,10 @@
       <c r="E34" s="154" t="s">
         <v>125</v>
       </c>
-      <c r="F34" s="213" t="s">
+      <c r="F34" s="225" t="s">
         <v>128</v>
       </c>
-      <c r="G34" s="214"/>
+      <c r="G34" s="227"/>
     </row>
     <row r="35" spans="1:12" s="120" customFormat="1">
       <c r="A35" s="116"/>
@@ -7196,8 +7196,8 @@
       <c r="E35" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="F35" s="216"/>
-      <c r="G35" s="217"/>
+      <c r="F35" s="234"/>
+      <c r="G35" s="235"/>
       <c r="H35" s="119"/>
       <c r="I35" s="119"/>
       <c r="J35" s="119"/>
@@ -7220,8 +7220,8 @@
       <c r="E36" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="205"/>
-      <c r="G36" s="206"/>
+      <c r="F36" s="231"/>
+      <c r="G36" s="232"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="95">
@@ -7239,8 +7239,8 @@
       <c r="E37" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="205"/>
-      <c r="G37" s="206"/>
+      <c r="F37" s="231"/>
+      <c r="G37" s="232"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="101"/>
@@ -7253,10 +7253,10 @@
       <c r="H38" s="103"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="210" t="s">
+      <c r="B39" s="220" t="s">
         <v>180</v>
       </c>
-      <c r="C39" s="210"/>
+      <c r="C39" s="220"/>
       <c r="D39" s="89"/>
       <c r="E39" s="89"/>
       <c r="F39" s="89"/>
@@ -7280,15 +7280,15 @@
       <c r="B41" s="154" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="215" t="s">
+      <c r="C41" s="233" t="s">
         <v>182</v>
       </c>
-      <c r="D41" s="215"/>
-      <c r="E41" s="215" t="s">
+      <c r="D41" s="233"/>
+      <c r="E41" s="233" t="s">
         <v>183</v>
       </c>
-      <c r="F41" s="215"/>
-      <c r="G41" s="215"/>
+      <c r="F41" s="233"/>
+      <c r="G41" s="233"/>
       <c r="H41" s="94" t="s">
         <v>184</v>
       </c>
@@ -7300,15 +7300,15 @@
       <c r="B42" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="C42" s="218" t="s">
+      <c r="C42" s="230" t="s">
         <v>186</v>
       </c>
-      <c r="D42" s="218"/>
-      <c r="E42" s="218" t="s">
+      <c r="D42" s="230"/>
+      <c r="E42" s="230" t="s">
         <v>187</v>
       </c>
-      <c r="F42" s="218"/>
-      <c r="G42" s="218"/>
+      <c r="F42" s="230"/>
+      <c r="G42" s="230"/>
       <c r="H42" s="104"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -7318,15 +7318,15 @@
       <c r="B43" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="C43" s="218" t="s">
+      <c r="C43" s="230" t="s">
         <v>186</v>
       </c>
-      <c r="D43" s="218"/>
-      <c r="E43" s="218" t="s">
+      <c r="D43" s="230"/>
+      <c r="E43" s="230" t="s">
         <v>187</v>
       </c>
-      <c r="F43" s="218"/>
-      <c r="G43" s="218"/>
+      <c r="F43" s="230"/>
+      <c r="G43" s="230"/>
       <c r="H43" s="104"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -7336,15 +7336,15 @@
       <c r="B44" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="C44" s="218" t="s">
+      <c r="C44" s="230" t="s">
         <v>186</v>
       </c>
-      <c r="D44" s="218"/>
-      <c r="E44" s="218" t="s">
+      <c r="D44" s="230"/>
+      <c r="E44" s="230" t="s">
         <v>187</v>
       </c>
-      <c r="F44" s="218"/>
-      <c r="G44" s="218"/>
+      <c r="F44" s="230"/>
+      <c r="G44" s="230"/>
       <c r="H44" s="104"/>
     </row>
     <row r="45" spans="1:12">
@@ -7356,10 +7356,10 @@
       <c r="G45" s="93"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="210" t="s">
+      <c r="B46" s="220" t="s">
         <v>188</v>
       </c>
-      <c r="C46" s="210"/>
+      <c r="C46" s="220"/>
       <c r="D46" s="89"/>
       <c r="E46" s="89"/>
       <c r="F46" s="89"/>
@@ -7383,19 +7383,19 @@
       <c r="B48" s="223" t="s">
         <v>190</v>
       </c>
-      <c r="C48" s="213" t="s">
+      <c r="C48" s="225" t="s">
         <v>191</v>
       </c>
-      <c r="D48" s="225"/>
-      <c r="E48" s="225"/>
-      <c r="F48" s="214"/>
-      <c r="G48" s="226" t="s">
+      <c r="D48" s="226"/>
+      <c r="E48" s="226"/>
+      <c r="F48" s="227"/>
+      <c r="G48" s="228" t="s">
         <v>158</v>
       </c>
-      <c r="H48" s="226" t="s">
+      <c r="H48" s="228" t="s">
         <v>190</v>
       </c>
-      <c r="I48" s="219" t="s">
+      <c r="I48" s="218" t="s">
         <v>192</v>
       </c>
       <c r="J48" s="107"/>
@@ -7417,9 +7417,9 @@
       <c r="F49" s="110" t="s">
         <v>170</v>
       </c>
-      <c r="G49" s="227"/>
-      <c r="H49" s="227"/>
-      <c r="I49" s="220"/>
+      <c r="G49" s="229"/>
+      <c r="H49" s="229"/>
+      <c r="I49" s="219"/>
     </row>
     <row r="50" spans="1:9" ht="38.25">
       <c r="A50" s="222"/>
@@ -7535,26 +7535,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="F35:G35"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -7567,6 +7547,26 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -7604,9 +7604,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7775,19 +7778,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7812,9 +7811,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/MiddleAssignment_LeTuanSang/MiddleAssignment_TestDesign3/TestDesign3_LeTuanSang.xlsx
+++ b/MiddleAssignment_LeTuanSang/MiddleAssignment_TestDesign3/TestDesign3_LeTuanSang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NashTechHomeWork_LeTuanSang\MiddleAssignment_LeTuanSang\MiddleAssignment_TestDesign3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EAC5C9-68FA-4E53-9C5A-8624A61B7373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20756132-3BF8-4083-BBD8-2245A963AB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="840" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F63" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="F64" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F64" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+    <comment ref="F65" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -203,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F66" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+    <comment ref="F67" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F79" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+    <comment ref="F80" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -251,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G79" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+    <comment ref="G80" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -275,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F80" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
+    <comment ref="F81" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -299,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G80" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
+    <comment ref="G81" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -323,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F85" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000C000000}">
+    <comment ref="F86" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -347,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G85" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000D000000}">
+    <comment ref="G86" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -371,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F88" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000E000000}">
+    <comment ref="F89" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -395,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F103" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000F000000}">
+    <comment ref="F104" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -419,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F105" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000010000000}">
+    <comment ref="F106" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000010000000}">
       <text>
         <r>
           <rPr>
@@ -448,7 +448,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="276">
   <si>
     <r>
       <t xml:space="preserve">Security Classification: </t>
@@ -1142,19 +1142,7 @@
     <t>Check Search Box by pasting data</t>
   </si>
   <si>
-    <t>Verify Search Result display Brand( shop) and Brand Product when input Brand Name</t>
-  </si>
-  <si>
-    <t>Verify Search Result display product of Supplier when input Supplier Name</t>
-  </si>
-  <si>
     <t>Check Search Result by input special character</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify when input Product Name, Search Result display product have similar name </t>
-  </si>
-  <si>
-    <t>Verify Search Result display similar function product when input Category Name</t>
   </si>
   <si>
     <t>Check Search Box by input URL, SQL, HTTP GET, SQL Injection, XSS</t>
@@ -1224,28 +1212,7 @@
     <t>Check History when search 1 time</t>
   </si>
   <si>
-    <t>Check History when search 5 time</t>
-  </si>
-  <si>
     <t>Check Suggestion when input 1 character</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check page display of 10 product </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check page display of 1 product </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check page display of 11 product </t>
-  </si>
-  <si>
-    <t>Check &lt;&gt; button if have 10 item</t>
-  </si>
-  <si>
-    <t>Check &lt;&gt; button if have 15 item</t>
-  </si>
-  <si>
-    <t>Check &lt;&gt; button if have 25 item</t>
   </si>
   <si>
     <t>Check value of the arrangment droplist default is best match</t>
@@ -1351,9 +1318,6 @@
     <t>Price 'arrangment high to low</t>
   </si>
   <si>
-    <t>Nothing ib history search</t>
-  </si>
-  <si>
     <t>1 history search</t>
   </si>
   <si>
@@ -1380,13 +1344,49 @@
 3. Click Search icon</t>
   </si>
   <si>
-    <t>Page show 10 item</t>
-  </si>
-  <si>
     <t>Page 1 show 10 item, page 2 show 1 item</t>
   </si>
   <si>
     <t>Both &lt;&gt; are disable</t>
+  </si>
+  <si>
+    <t>Nothing in history search</t>
+  </si>
+  <si>
+    <t>Verify when input Product Name, Search Result display all Product, Category, Brand, Supplier for keyword</t>
+  </si>
+  <si>
+    <t>Verify when input Category Name, Search Result display all Product, Category, Brand, Supplier for keyword</t>
+  </si>
+  <si>
+    <t>Verify when input Brand Name, Search Result display all Product, Category, Brand, Supplier for keyword</t>
+  </si>
+  <si>
+    <t>Verify when input Supplier Name, Search Result display all Product, Category, Brand, Supplier for keyword</t>
+  </si>
+  <si>
+    <t>Check History when search more than 1 time</t>
+  </si>
+  <si>
+    <t>Check &lt;&gt; button for greater than  20 item</t>
+  </si>
+  <si>
+    <t>Check &lt;&gt; button for greater than 10 and less than 20 item</t>
+  </si>
+  <si>
+    <t>Check &lt;&gt; button for less than or equal to 10 item</t>
+  </si>
+  <si>
+    <t>Check page display fof more than 11 item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check page display fof less than 10 item </t>
+  </si>
+  <si>
+    <t>Check page display fof 11 item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check page display fof 10 item </t>
   </si>
 </sst>
 </file>
@@ -2931,6 +2931,15 @@
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2955,12 +2964,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2970,8 +2973,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2979,9 +3021,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2994,52 +3033,13 @@
     <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4832,10 +4832,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:X105"/>
+  <dimension ref="A1:X106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4851,10 +4851,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="14.25">
-      <c r="A1" s="207"/>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
+      <c r="A1" s="210"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -4863,13 +4863,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="211" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="216"/>
+      <c r="B2" s="211"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="217"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -4878,9 +4878,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="216"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="217"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -4891,11 +4891,11 @@
       <c r="A4" s="134" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="213" t="s">
+      <c r="B4" s="205" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -4909,9 +4909,9 @@
       <c r="A5" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="212"/>
-      <c r="C5" s="213"/>
-      <c r="D5" s="213"/>
+      <c r="B5" s="206"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="205"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -4925,9 +4925,9 @@
       <c r="A6" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="212"/>
-      <c r="C6" s="213"/>
-      <c r="D6" s="213"/>
+      <c r="B6" s="206"/>
+      <c r="C6" s="205"/>
+      <c r="D6" s="205"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -4938,11 +4938,11 @@
       <c r="A7" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="205" t="s">
         <v>201</v>
       </c>
-      <c r="C7" s="213"/>
-      <c r="D7" s="213"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -4954,9 +4954,9 @@
       <c r="A8" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="214"/>
-      <c r="C8" s="214"/>
-      <c r="D8" s="214"/>
+      <c r="B8" s="215"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -4998,15 +4998,15 @@
         <v>41</v>
       </c>
       <c r="B11" s="70">
-        <f>COUNTIF($F$18:$F$49657,"*Passed")</f>
+        <f>COUNTIF($F$18:$F$49658,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C11" s="70">
-        <f>COUNTIF($G$18:$G$49657,"*Passed")</f>
+        <f>COUNTIF($G$18:$G$49658,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D11" s="168">
-        <f>COUNTIF($H$18:$H$49657,"*Passed")</f>
+        <f>COUNTIF($H$18:$H$49658,"*Passed")</f>
         <v>0</v>
       </c>
     </row>
@@ -5015,15 +5015,15 @@
         <v>43</v>
       </c>
       <c r="B12" s="70">
-        <f>COUNTIF($F$18:$F$49377,"*Failed*")</f>
+        <f>COUNTIF($F$18:$F$49378,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="70">
-        <f>COUNTIF($G$18:$G$49377,"*Failed*")</f>
+        <f>COUNTIF($G$18:$G$49378,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="168">
-        <f>COUNTIF($H$18:$H$49377,"*Failed*")</f>
+        <f>COUNTIF($H$18:$H$49378,"*Failed*")</f>
         <v>0</v>
       </c>
     </row>
@@ -5032,15 +5032,15 @@
         <v>45</v>
       </c>
       <c r="B13" s="70">
-        <f>COUNTIF($F$18:$F$49377,"*Not Run*")</f>
+        <f>COUNTIF($F$18:$F$49378,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C13" s="70">
-        <f>COUNTIF($G$18:$G$49377,"*Not Run*")</f>
+        <f>COUNTIF($G$18:$G$49378,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D13" s="168">
-        <f>COUNTIF($H$18:$H$49377,"*Not Run*")</f>
+        <f>COUNTIF($H$18:$H$49378,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="1"/>
@@ -5054,15 +5054,15 @@
         <v>101</v>
       </c>
       <c r="B14" s="70">
-        <f>COUNTIF($F$18:$F$49377,"*NA*")</f>
+        <f>COUNTIF($F$18:$F$49378,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C14" s="70">
-        <f>COUNTIF($G$18:$G$49377,"*NA*")</f>
+        <f>COUNTIF($G$18:$G$49378,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="168">
-        <f>COUNTIF($H$18:$H$49377,"*NA*")</f>
+        <f>COUNTIF($H$18:$H$49378,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="1"/>
@@ -5076,15 +5076,15 @@
         <v>102</v>
       </c>
       <c r="B15" s="70">
-        <f>COUNTIF($F$18:$F$49377,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$18:$F$49378,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C15" s="70">
-        <f>COUNTIF($G$18:$G$49377,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$18:$G$49378,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D15" s="168">
-        <f>COUNTIF($H$18:$H$49377,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$18:$H$49378,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="1"/>
@@ -5099,11 +5099,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="169"/>
       <c r="E16" s="54"/>
-      <c r="F16" s="215" t="s">
+      <c r="F16" s="216" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="215"/>
-      <c r="H16" s="215"/>
+      <c r="G16" s="216"/>
+      <c r="H16" s="216"/>
       <c r="I16" s="55"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="38.25">
@@ -5137,9 +5137,9 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="62"/>
-      <c r="B18" s="204"/>
-      <c r="C18" s="205"/>
-      <c r="D18" s="206"/>
+      <c r="B18" s="207"/>
+      <c r="C18" s="208"/>
+      <c r="D18" s="209"/>
       <c r="E18" s="62"/>
       <c r="F18" s="63"/>
       <c r="G18" s="63"/>
@@ -5151,7 +5151,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C19" s="51"/>
       <c r="D19" s="171"/>
@@ -5164,15 +5164,15 @@
     <row r="20" spans="1:9" s="45" customFormat="1">
       <c r="A20" s="163"/>
       <c r="B20" s="163" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C20" s="164"/>
-      <c r="D20" s="204"/>
-      <c r="E20" s="205"/>
-      <c r="F20" s="206"/>
-      <c r="G20" s="204"/>
-      <c r="H20" s="205"/>
-      <c r="I20" s="206"/>
+      <c r="D20" s="207"/>
+      <c r="E20" s="208"/>
+      <c r="F20" s="209"/>
+      <c r="G20" s="207"/>
+      <c r="H20" s="208"/>
+      <c r="I20" s="209"/>
     </row>
     <row r="21" spans="1:9" s="45" customFormat="1">
       <c r="A21" s="56">
@@ -5180,7 +5180,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C21" s="51"/>
       <c r="D21" s="172"/>
@@ -5196,7 +5196,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C22" s="51"/>
       <c r="D22" s="165"/>
@@ -5212,11 +5212,11 @@
         <v>4</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C23" s="51"/>
       <c r="D23" s="165" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E23" s="52"/>
       <c r="F23" s="51"/>
@@ -5230,13 +5230,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D24" s="165" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="E24" s="52"/>
       <c r="F24" s="51"/>
@@ -5250,13 +5250,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D25" s="165" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="E25" s="52"/>
       <c r="F25" s="51"/>
@@ -5270,11 +5270,11 @@
         <v>7</v>
       </c>
       <c r="B26" s="51" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C26" s="51"/>
       <c r="D26" s="165" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E26" s="52"/>
       <c r="F26" s="51"/>
@@ -5288,13 +5288,13 @@
         <v>8</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D27" s="165" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E27" s="52"/>
       <c r="F27" s="51"/>
@@ -5308,13 +5308,13 @@
         <v>9</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D28" s="165" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="E28" s="52"/>
       <c r="F28" s="51"/>
@@ -5328,13 +5328,13 @@
         <v>10</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D29" s="165" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="E29" s="52"/>
       <c r="F29" s="51"/>
@@ -5348,13 +5348,13 @@
         <v>11</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D30" s="165" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E30" s="52"/>
       <c r="F30" s="51"/>
@@ -5368,13 +5368,13 @@
         <v>12</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C31" s="51" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D31" s="165" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E31" s="52"/>
       <c r="F31" s="51"/>
@@ -5391,10 +5391,10 @@
         <v>203</v>
       </c>
       <c r="C32" s="51" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D32" s="165" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="E32" s="52"/>
       <c r="F32" s="51"/>
@@ -5408,12 +5408,12 @@
         <v>202</v>
       </c>
       <c r="C33" s="164"/>
-      <c r="D33" s="204"/>
-      <c r="E33" s="205"/>
-      <c r="F33" s="206"/>
-      <c r="G33" s="204"/>
-      <c r="H33" s="205"/>
-      <c r="I33" s="206"/>
+      <c r="D33" s="207"/>
+      <c r="E33" s="208"/>
+      <c r="F33" s="209"/>
+      <c r="G33" s="207"/>
+      <c r="H33" s="208"/>
+      <c r="I33" s="209"/>
     </row>
     <row r="34" spans="1:9" s="48" customFormat="1" ht="25.5">
       <c r="A34" s="56">
@@ -5421,7 +5421,7 @@
         <v>14</v>
       </c>
       <c r="B34" s="51" t="s">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="C34" s="51"/>
       <c r="D34" s="165"/>
@@ -5437,7 +5437,7 @@
         <v>15</v>
       </c>
       <c r="B35" s="51" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="C35" s="51"/>
       <c r="D35" s="165"/>
@@ -5453,7 +5453,7 @@
         <v>16</v>
       </c>
       <c r="B36" s="51" t="s">
-        <v>204</v>
+        <v>266</v>
       </c>
       <c r="C36" s="51"/>
       <c r="D36" s="165"/>
@@ -5463,13 +5463,13 @@
       <c r="H36" s="51"/>
       <c r="I36" s="58"/>
     </row>
-    <row r="37" spans="1:9" s="48" customFormat="1" ht="14.25">
+    <row r="37" spans="1:9" s="48" customFormat="1" ht="25.5">
       <c r="A37" s="56">
         <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="B37" s="51" t="s">
-        <v>205</v>
+        <v>267</v>
       </c>
       <c r="C37" s="51"/>
       <c r="D37" s="165"/>
@@ -5482,7 +5482,7 @@
     <row r="38" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A38" s="163"/>
       <c r="B38" s="161" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C38" s="161"/>
       <c r="D38" s="174"/>
@@ -5498,10 +5498,10 @@
         <v>18</v>
       </c>
       <c r="B39" s="51" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D39" s="165" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E39" s="52"/>
       <c r="F39" s="51"/>
@@ -5515,11 +5515,11 @@
         <v>19</v>
       </c>
       <c r="B40" s="51" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C40" s="51"/>
       <c r="D40" s="165" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E40" s="52"/>
       <c r="F40" s="51"/>
@@ -5533,11 +5533,11 @@
         <v>20</v>
       </c>
       <c r="B41" s="51" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C41" s="51"/>
       <c r="D41" s="165" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E41" s="52"/>
       <c r="F41" s="51"/>
@@ -5551,11 +5551,11 @@
         <v>21</v>
       </c>
       <c r="B42" s="51" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C42" s="51"/>
       <c r="D42" s="165" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E42" s="52"/>
       <c r="F42" s="51"/>
@@ -5566,7 +5566,7 @@
     <row r="43" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A43" s="161"/>
       <c r="B43" s="161" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C43" s="161"/>
       <c r="D43" s="174"/>
@@ -5582,11 +5582,11 @@
         <v>22</v>
       </c>
       <c r="B44" s="51" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C44" s="51"/>
       <c r="D44" s="165" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E44" s="52"/>
       <c r="F44" s="51"/>
@@ -5600,11 +5600,11 @@
         <v>23</v>
       </c>
       <c r="B45" s="51" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C45" s="51"/>
       <c r="D45" s="165" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="E45" s="52"/>
       <c r="F45" s="51"/>
@@ -5618,11 +5618,11 @@
         <v>24</v>
       </c>
       <c r="B46" s="51" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="C46" s="51"/>
       <c r="D46" s="165" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E46" s="52"/>
       <c r="F46" s="51"/>
@@ -5636,7 +5636,7 @@
         <v>25</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C47" s="51"/>
       <c r="D47" s="175"/>
@@ -5649,7 +5649,7 @@
     <row r="48" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A48" s="162"/>
       <c r="B48" s="162" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C48" s="163"/>
       <c r="D48" s="176"/>
@@ -5665,7 +5665,7 @@
         <v>26</v>
       </c>
       <c r="B49" s="51" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C49" s="51"/>
       <c r="D49" s="171"/>
@@ -5681,7 +5681,7 @@
         <v>27</v>
       </c>
       <c r="B50" s="51" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C50" s="51"/>
       <c r="D50" s="173"/>
@@ -5693,11 +5693,11 @@
     </row>
     <row r="51" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A51" s="72"/>
-      <c r="B51" s="209" t="s">
-        <v>218</v>
-      </c>
-      <c r="C51" s="210"/>
-      <c r="D51" s="211"/>
+      <c r="B51" s="212" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51" s="213"/>
+      <c r="D51" s="214"/>
       <c r="E51" s="64"/>
       <c r="F51" s="61"/>
       <c r="G51" s="61"/>
@@ -5706,16 +5706,14 @@
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A52" s="59">
-        <f t="shared" ref="A52:A105" ca="1" si="2">IF(OFFSET(A52,-1,0) ="",OFFSET(A52,-2,0)+1,OFFSET(A52,-1,0)+1 )</f>
+        <f t="shared" ref="A52:A106" ca="1" si="2">IF(OFFSET(A52,-1,0) ="",OFFSET(A52,-2,0)+1,OFFSET(A52,-1,0)+1 )</f>
         <v>28</v>
       </c>
       <c r="B52" s="51" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="C52" s="51"/>
-      <c r="D52" s="171" t="s">
-        <v>273</v>
-      </c>
+      <c r="D52" s="171"/>
       <c r="E52" s="52"/>
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
@@ -5728,12 +5726,10 @@
         <v>29</v>
       </c>
       <c r="B53" s="51" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="C53" s="51"/>
-      <c r="D53" s="171" t="s">
-        <v>273</v>
-      </c>
+      <c r="D53" s="171"/>
       <c r="E53" s="52"/>
       <c r="F53" s="51"/>
       <c r="G53" s="51"/>
@@ -5746,11 +5742,11 @@
         <v>30</v>
       </c>
       <c r="B54" s="51" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="C54" s="51"/>
       <c r="D54" s="171" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="E54" s="52"/>
       <c r="F54" s="51"/>
@@ -5759,34 +5755,29 @@
       <c r="I54" s="59"/>
     </row>
     <row r="55" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A55" s="59">
-        <f t="shared" ca="1" si="2"/>
-        <v>31</v>
-      </c>
+      <c r="A55" s="59"/>
       <c r="B55" s="51" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="C55" s="51"/>
-      <c r="D55" s="171" t="s">
-        <v>275</v>
-      </c>
+      <c r="D55" s="171"/>
       <c r="E55" s="52"/>
       <c r="F55" s="51"/>
       <c r="G55" s="51"/>
       <c r="H55" s="51"/>
       <c r="I55" s="59"/>
     </row>
-    <row r="56" spans="1:9" s="48" customFormat="1" ht="63.75">
+    <row r="56" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A56" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B56" s="51" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="C56" s="51"/>
       <c r="D56" s="171" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="E56" s="52"/>
       <c r="F56" s="51"/>
@@ -5794,17 +5785,17 @@
       <c r="H56" s="51"/>
       <c r="I56" s="59"/>
     </row>
-    <row r="57" spans="1:9" s="48" customFormat="1" ht="76.5">
+    <row r="57" spans="1:9" s="48" customFormat="1" ht="63.75">
       <c r="A57" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B57" s="51" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="C57" s="51"/>
       <c r="D57" s="171" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="E57" s="52"/>
       <c r="F57" s="51"/>
@@ -5812,64 +5803,64 @@
       <c r="H57" s="51"/>
       <c r="I57" s="59"/>
     </row>
-    <row r="58" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A58" s="72"/>
-      <c r="B58" s="209" t="s">
-        <v>219</v>
-      </c>
-      <c r="C58" s="210"/>
-      <c r="D58" s="211"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="61"/>
-      <c r="I58" s="64"/>
-    </row>
-    <row r="59" spans="1:9" s="49" customFormat="1" ht="14.25">
-      <c r="A59" s="60">
+    <row r="58" spans="1:9" s="48" customFormat="1" ht="76.5">
+      <c r="A58" s="59">
+        <f t="shared" ca="1" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="B58" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="C58" s="51"/>
+      <c r="D58" s="171" t="s">
+        <v>229</v>
+      </c>
+      <c r="E58" s="52"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="59"/>
+    </row>
+    <row r="59" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A59" s="72"/>
+      <c r="B59" s="212" t="s">
+        <v>215</v>
+      </c>
+      <c r="C59" s="213"/>
+      <c r="D59" s="214"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="64"/>
+    </row>
+    <row r="60" spans="1:9" s="49" customFormat="1" ht="14.25">
+      <c r="A60" s="60">
         <f t="shared" ca="1" si="2"/>
         <v>34</v>
       </c>
-      <c r="B59" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="C59" s="51"/>
-      <c r="D59" s="171"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="60"/>
-    </row>
-    <row r="60" spans="1:9" s="48" customFormat="1" ht="51">
-      <c r="A60" s="59">
-        <f t="shared" ca="1" si="2"/>
-        <v>35</v>
-      </c>
       <c r="B60" s="51" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C60" s="51"/>
-      <c r="D60" s="165" t="s">
-        <v>242</v>
-      </c>
+      <c r="D60" s="171"/>
       <c r="E60" s="52"/>
       <c r="F60" s="51"/>
       <c r="G60" s="51"/>
       <c r="H60" s="51"/>
-      <c r="I60" s="59"/>
-    </row>
-    <row r="61" spans="1:9" s="48" customFormat="1" ht="25.5">
+      <c r="I60" s="60"/>
+    </row>
+    <row r="61" spans="1:9" s="48" customFormat="1" ht="51">
       <c r="A61" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B61" s="51" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C61" s="51"/>
       <c r="D61" s="165" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="E61" s="52"/>
       <c r="F61" s="51"/>
@@ -5880,30 +5871,34 @@
     <row r="62" spans="1:9" s="48" customFormat="1" ht="25.5">
       <c r="A62" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B62" s="51" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C62" s="51"/>
       <c r="D62" s="165" t="s">
-        <v>264</v>
-      </c>
-      <c r="E62" s="57"/>
+        <v>252</v>
+      </c>
+      <c r="E62" s="52"/>
       <c r="F62" s="51"/>
       <c r="G62" s="51"/>
       <c r="H62" s="51"/>
       <c r="I62" s="59"/>
     </row>
-    <row r="63" spans="1:9" s="48" customFormat="1" ht="14.25">
+    <row r="63" spans="1:9" s="48" customFormat="1" ht="25.5">
       <c r="A63" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="B63" s="51"/>
+        <v>37</v>
+      </c>
+      <c r="B63" s="51" t="s">
+        <v>218</v>
+      </c>
       <c r="C63" s="51"/>
-      <c r="D63" s="165"/>
-      <c r="E63" s="52"/>
+      <c r="D63" s="165" t="s">
+        <v>253</v>
+      </c>
+      <c r="E63" s="57"/>
       <c r="F63" s="51"/>
       <c r="G63" s="51"/>
       <c r="H63" s="51"/>
@@ -5912,7 +5907,7 @@
     <row r="64" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A64" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
@@ -5926,7 +5921,7 @@
     <row r="65" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A65" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
@@ -5939,8 +5934,8 @@
     </row>
     <row r="66" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A66" s="59">
-        <f ca="1">IF(OFFSET(A66,-1,0) ="",OFFSET(A66,-2,0)+1,OFFSET(A66,-1,0)+1 )</f>
-        <v>41</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
       </c>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
@@ -5953,12 +5948,12 @@
     </row>
     <row r="67" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A67" s="59">
-        <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <f ca="1">IF(OFFSET(A67,-1,0) ="",OFFSET(A67,-2,0)+1,OFFSET(A67,-1,0)+1 )</f>
+        <v>41</v>
       </c>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
-      <c r="D67" s="173"/>
+      <c r="D67" s="165"/>
       <c r="E67" s="52"/>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
@@ -5966,38 +5961,38 @@
       <c r="I67" s="59"/>
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A68" s="72"/>
-      <c r="B68" s="204"/>
-      <c r="C68" s="205"/>
-      <c r="D68" s="206"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="61"/>
-      <c r="I68" s="64"/>
+      <c r="A68" s="59">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="B68" s="51"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="173"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="59"/>
     </row>
     <row r="69" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A69" s="59">
-        <f t="shared" ca="1" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="171"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
-      <c r="I69" s="59"/>
+      <c r="A69" s="72"/>
+      <c r="B69" s="207"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="209"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="61"/>
+      <c r="G69" s="61"/>
+      <c r="H69" s="61"/>
+      <c r="I69" s="64"/>
     </row>
     <row r="70" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A70" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
-      <c r="D70" s="165"/>
+      <c r="D70" s="171"/>
       <c r="E70" s="52"/>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
@@ -6007,7 +6002,7 @@
     <row r="71" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A71" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
@@ -6021,7 +6016,7 @@
     <row r="72" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A72" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
@@ -6033,39 +6028,39 @@
       <c r="I72" s="59"/>
     </row>
     <row r="73" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A73" s="72"/>
-      <c r="B73" s="204"/>
-      <c r="C73" s="205"/>
-      <c r="D73" s="206"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="64"/>
+      <c r="A73" s="59">
+        <f t="shared" ca="1" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="B73" s="51"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="165"/>
+      <c r="E73" s="52"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="59"/>
     </row>
     <row r="74" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A74" s="59">
-        <f t="shared" ca="1" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="B74" s="51"/>
-      <c r="C74" s="51"/>
-      <c r="D74" s="171"/>
-      <c r="E74" s="52"/>
-      <c r="F74" s="51"/>
-      <c r="G74" s="51"/>
-      <c r="H74" s="51"/>
-      <c r="I74" s="59"/>
+      <c r="A74" s="72"/>
+      <c r="B74" s="207"/>
+      <c r="C74" s="208"/>
+      <c r="D74" s="209"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="61"/>
+      <c r="H74" s="61"/>
+      <c r="I74" s="64"/>
     </row>
     <row r="75" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A75" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
-      <c r="D75" s="165"/>
-      <c r="E75" s="57"/>
+      <c r="D75" s="171"/>
+      <c r="E75" s="52"/>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
       <c r="H75" s="51"/>
@@ -6074,51 +6069,51 @@
     <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A76" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
-      <c r="D76" s="173"/>
-      <c r="E76" s="52"/>
+      <c r="D76" s="165"/>
+      <c r="E76" s="57"/>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
       <c r="H76" s="51"/>
       <c r="I76" s="59"/>
     </row>
     <row r="77" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A77" s="72"/>
-      <c r="B77" s="204"/>
-      <c r="C77" s="205"/>
-      <c r="D77" s="206"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="64"/>
+      <c r="A77" s="59">
+        <f t="shared" ca="1" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="B77" s="51"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="173"/>
+      <c r="E77" s="52"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="59"/>
     </row>
     <row r="78" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A78" s="59">
-        <f t="shared" ca="1" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="B78" s="51"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="171"/>
-      <c r="E78" s="52"/>
-      <c r="F78" s="51"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="59"/>
+      <c r="A78" s="72"/>
+      <c r="B78" s="207"/>
+      <c r="C78" s="208"/>
+      <c r="D78" s="209"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="61"/>
+      <c r="H78" s="61"/>
+      <c r="I78" s="64"/>
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A79" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B79" s="51"/>
       <c r="C79" s="51"/>
-      <c r="D79" s="165"/>
-      <c r="E79" s="57"/>
+      <c r="D79" s="171"/>
+      <c r="E79" s="52"/>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
       <c r="H79" s="51"/>
@@ -6127,7 +6122,7 @@
     <row r="80" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A80" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B80" s="51"/>
       <c r="C80" s="51"/>
@@ -6141,7 +6136,7 @@
     <row r="81" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A81" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B81" s="51"/>
       <c r="C81" s="51"/>
@@ -6155,12 +6150,12 @@
     <row r="82" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A82" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B82" s="51"/>
       <c r="C82" s="51"/>
       <c r="D82" s="165"/>
-      <c r="E82" s="52"/>
+      <c r="E82" s="57"/>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
       <c r="H82" s="51"/>
@@ -6169,7 +6164,7 @@
     <row r="83" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A83" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B83" s="51"/>
       <c r="C83" s="51"/>
@@ -6183,11 +6178,11 @@
     <row r="84" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A84" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
-      <c r="D84" s="173"/>
+      <c r="D84" s="165"/>
       <c r="E84" s="52"/>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
@@ -6197,7 +6192,7 @@
     <row r="85" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A85" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
@@ -6211,7 +6206,7 @@
     <row r="86" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A86" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
@@ -6225,12 +6220,12 @@
     <row r="87" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A87" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
-      <c r="D87" s="165"/>
-      <c r="E87" s="57"/>
+      <c r="D87" s="173"/>
+      <c r="E87" s="52"/>
       <c r="F87" s="51"/>
       <c r="G87" s="51"/>
       <c r="H87" s="51"/>
@@ -6239,7 +6234,7 @@
     <row r="88" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A88" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
@@ -6251,39 +6246,39 @@
       <c r="I88" s="59"/>
     </row>
     <row r="89" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A89" s="72"/>
-      <c r="B89" s="204"/>
-      <c r="C89" s="205"/>
-      <c r="D89" s="206"/>
-      <c r="E89" s="64"/>
-      <c r="F89" s="61"/>
-      <c r="G89" s="61"/>
-      <c r="H89" s="61"/>
-      <c r="I89" s="64"/>
+      <c r="A89" s="59">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="B89" s="51"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="165"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="51"/>
+      <c r="G89" s="51"/>
+      <c r="H89" s="51"/>
+      <c r="I89" s="59"/>
     </row>
     <row r="90" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A90" s="59">
-        <f t="shared" ca="1" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="B90" s="51"/>
-      <c r="C90" s="51"/>
-      <c r="D90" s="171"/>
-      <c r="E90" s="52"/>
-      <c r="F90" s="51"/>
-      <c r="G90" s="51"/>
-      <c r="H90" s="51"/>
-      <c r="I90" s="59"/>
+      <c r="A90" s="72"/>
+      <c r="B90" s="207"/>
+      <c r="C90" s="208"/>
+      <c r="D90" s="209"/>
+      <c r="E90" s="64"/>
+      <c r="F90" s="61"/>
+      <c r="G90" s="61"/>
+      <c r="H90" s="61"/>
+      <c r="I90" s="64"/>
     </row>
     <row r="91" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A91" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
-      <c r="D91" s="173"/>
-      <c r="E91" s="57"/>
+      <c r="D91" s="171"/>
+      <c r="E91" s="52"/>
       <c r="F91" s="51"/>
       <c r="G91" s="51"/>
       <c r="H91" s="51"/>
@@ -6292,7 +6287,7 @@
     <row r="92" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A92" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
@@ -6304,34 +6299,34 @@
       <c r="I92" s="59"/>
     </row>
     <row r="93" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A93" s="72"/>
-      <c r="B93" s="204"/>
-      <c r="C93" s="205"/>
-      <c r="D93" s="206"/>
-      <c r="E93" s="64"/>
-      <c r="F93" s="61"/>
-      <c r="G93" s="61"/>
-      <c r="H93" s="61"/>
-      <c r="I93" s="64"/>
+      <c r="A93" s="59">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="B93" s="51"/>
+      <c r="C93" s="51"/>
+      <c r="D93" s="173"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="51"/>
+      <c r="G93" s="51"/>
+      <c r="H93" s="51"/>
+      <c r="I93" s="59"/>
     </row>
     <row r="94" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A94" s="59">
-        <f t="shared" ca="1" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="B94" s="51"/>
-      <c r="C94" s="51"/>
-      <c r="D94" s="165"/>
-      <c r="E94" s="52"/>
-      <c r="F94" s="51"/>
-      <c r="G94" s="51"/>
-      <c r="H94" s="51"/>
-      <c r="I94" s="59"/>
+      <c r="A94" s="72"/>
+      <c r="B94" s="207"/>
+      <c r="C94" s="208"/>
+      <c r="D94" s="209"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="61"/>
+      <c r="G94" s="61"/>
+      <c r="H94" s="61"/>
+      <c r="I94" s="64"/>
     </row>
     <row r="95" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A95" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B95" s="51"/>
       <c r="C95" s="51"/>
@@ -6345,7 +6340,7 @@
     <row r="96" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A96" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B96" s="51"/>
       <c r="C96" s="51"/>
@@ -6356,78 +6351,78 @@
       <c r="H96" s="51"/>
       <c r="I96" s="59"/>
     </row>
-    <row r="97" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A97" s="72"/>
-      <c r="B97" s="204"/>
-      <c r="C97" s="205"/>
-      <c r="D97" s="206"/>
-      <c r="E97" s="64"/>
-      <c r="F97" s="61"/>
-      <c r="G97" s="61"/>
-      <c r="H97" s="61"/>
-      <c r="I97" s="64"/>
-    </row>
-    <row r="98" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A98" s="59">
+    <row r="97" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A97" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="B98" s="51"/>
-      <c r="C98" s="51"/>
-      <c r="D98" s="165"/>
-      <c r="E98" s="57"/>
-      <c r="F98" s="51"/>
-      <c r="G98" s="51"/>
-      <c r="H98" s="51"/>
-      <c r="I98" s="59"/>
+        <v>66</v>
+      </c>
+      <c r="B97" s="51"/>
+      <c r="C97" s="51"/>
+      <c r="D97" s="165"/>
+      <c r="E97" s="52"/>
+      <c r="F97" s="51"/>
+      <c r="G97" s="51"/>
+      <c r="H97" s="51"/>
+      <c r="I97" s="59"/>
+    </row>
+    <row r="98" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A98" s="72"/>
+      <c r="B98" s="207"/>
+      <c r="C98" s="208"/>
+      <c r="D98" s="209"/>
+      <c r="E98" s="64"/>
+      <c r="F98" s="61"/>
+      <c r="G98" s="61"/>
+      <c r="H98" s="61"/>
+      <c r="I98" s="64"/>
     </row>
     <row r="99" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A99" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B99" s="51"/>
       <c r="C99" s="51"/>
-      <c r="D99" s="173"/>
+      <c r="D99" s="165"/>
       <c r="E99" s="57"/>
       <c r="F99" s="51"/>
       <c r="G99" s="51"/>
       <c r="H99" s="51"/>
       <c r="I99" s="59"/>
     </row>
-    <row r="100" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A100" s="72"/>
-      <c r="B100" s="204"/>
-      <c r="C100" s="205"/>
-      <c r="D100" s="206"/>
-      <c r="E100" s="64"/>
-      <c r="F100" s="61"/>
-      <c r="G100" s="61"/>
-      <c r="H100" s="61"/>
-      <c r="I100" s="64"/>
-    </row>
-    <row r="101" spans="1:9" s="48" customFormat="1" ht="14.25">
-      <c r="A101" s="59">
+    <row r="100" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A100" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
-      </c>
-      <c r="B101" s="51"/>
-      <c r="C101" s="51"/>
-      <c r="D101" s="171"/>
-      <c r="E101" s="52"/>
-      <c r="F101" s="51"/>
-      <c r="G101" s="51"/>
-      <c r="H101" s="51"/>
-      <c r="I101" s="59"/>
+        <v>68</v>
+      </c>
+      <c r="B100" s="51"/>
+      <c r="C100" s="51"/>
+      <c r="D100" s="173"/>
+      <c r="E100" s="57"/>
+      <c r="F100" s="51"/>
+      <c r="G100" s="51"/>
+      <c r="H100" s="51"/>
+      <c r="I100" s="59"/>
+    </row>
+    <row r="101" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A101" s="72"/>
+      <c r="B101" s="207"/>
+      <c r="C101" s="208"/>
+      <c r="D101" s="209"/>
+      <c r="E101" s="64"/>
+      <c r="F101" s="61"/>
+      <c r="G101" s="61"/>
+      <c r="H101" s="61"/>
+      <c r="I101" s="64"/>
     </row>
     <row r="102" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A102" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B102" s="51"/>
       <c r="C102" s="51"/>
-      <c r="D102" s="173"/>
+      <c r="D102" s="171"/>
       <c r="E102" s="52"/>
       <c r="F102" s="51"/>
       <c r="G102" s="51"/>
@@ -6437,7 +6432,7 @@
     <row r="103" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A103" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
@@ -6451,7 +6446,7 @@
     <row r="104" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A104" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
@@ -6465,7 +6460,7 @@
     <row r="105" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A105" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
@@ -6476,20 +6471,27 @@
       <c r="H105" s="51"/>
       <c r="I105" s="59"/>
     </row>
+    <row r="106" spans="1:9" s="48" customFormat="1" ht="14.25">
+      <c r="A106" s="59">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="B106" s="51"/>
+      <c r="C106" s="51"/>
+      <c r="D106" s="173"/>
+      <c r="E106" s="52"/>
+      <c r="F106" s="51"/>
+      <c r="G106" s="51"/>
+      <c r="H106" s="51"/>
+      <c r="I106" s="59"/>
+    </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B89:D89"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B69:D69"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
@@ -6500,17 +6502,24 @@
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B98:D98"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:H18" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F106:H163" xr:uid="{00000000-0002-0000-0400-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F107:H164" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F19:H105" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F19:H106" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
   </dataValidations>
@@ -6558,13 +6567,13 @@
     </row>
     <row r="2" spans="1:12" s="79" customFormat="1" ht="26.25">
       <c r="A2" s="78"/>
-      <c r="C2" s="236" t="s">
+      <c r="C2" s="220" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
       <c r="H2" s="80" t="s">
         <v>116</v>
       </c>
@@ -6575,15 +6584,15 @@
     </row>
     <row r="3" spans="1:12" s="79" customFormat="1" ht="23.25">
       <c r="A3" s="78"/>
-      <c r="C3" s="237" t="s">
+      <c r="C3" s="221" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="237"/>
+      <c r="D3" s="221"/>
       <c r="E3" s="151"/>
-      <c r="F3" s="238" t="s">
+      <c r="F3" s="222" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="238"/>
+      <c r="G3" s="222"/>
       <c r="H3" s="81"/>
       <c r="I3" s="81"/>
       <c r="J3" s="82"/>
@@ -6608,10 +6617,10 @@
       <c r="L5" s="87"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="220" t="s">
+      <c r="B6" s="223" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="220"/>
+      <c r="C6" s="223"/>
       <c r="D6" s="89"/>
       <c r="E6" s="89"/>
       <c r="F6" s="89"/>
@@ -6780,11 +6789,11 @@
       <c r="G13" s="93"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="220" t="s">
+      <c r="B14" s="223" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="220"/>
-      <c r="D14" s="220"/>
+      <c r="C14" s="223"/>
+      <c r="D14" s="223"/>
       <c r="E14" s="89"/>
       <c r="F14" s="89"/>
       <c r="G14" s="90"/>
@@ -6960,11 +6969,11 @@
       <c r="G22" s="93"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="220" t="s">
+      <c r="B23" s="223" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="220"/>
-      <c r="D23" s="220"/>
+      <c r="C23" s="223"/>
+      <c r="D23" s="223"/>
       <c r="E23" s="89"/>
       <c r="F23" s="89"/>
       <c r="G23" s="90"/>
@@ -7010,10 +7019,10 @@
       <c r="F26" s="154" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="239" t="s">
+      <c r="G26" s="224" t="s">
         <v>111</v>
       </c>
-      <c r="H26" s="240"/>
+      <c r="H26" s="225"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="95">
@@ -7038,8 +7047,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="231"/>
-      <c r="H27" s="232"/>
+      <c r="G27" s="218"/>
+      <c r="H27" s="219"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="95">
@@ -7064,8 +7073,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="231"/>
-      <c r="H28" s="232"/>
+      <c r="G28" s="218"/>
+      <c r="H28" s="219"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="95">
@@ -7090,8 +7099,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="231"/>
-      <c r="H29" s="232"/>
+      <c r="G29" s="218"/>
+      <c r="H29" s="219"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="95">
@@ -7116,8 +7125,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="231"/>
-      <c r="H30" s="232"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="219"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="95"/>
@@ -7138,8 +7147,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="231"/>
-      <c r="H31" s="232"/>
+      <c r="G31" s="218"/>
+      <c r="H31" s="219"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="101"/>
@@ -7177,7 +7186,7 @@
       <c r="E34" s="154" t="s">
         <v>125</v>
       </c>
-      <c r="F34" s="225" t="s">
+      <c r="F34" s="226" t="s">
         <v>128</v>
       </c>
       <c r="G34" s="227"/>
@@ -7196,8 +7205,8 @@
       <c r="E35" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="F35" s="234"/>
-      <c r="G35" s="235"/>
+      <c r="F35" s="229"/>
+      <c r="G35" s="230"/>
       <c r="H35" s="119"/>
       <c r="I35" s="119"/>
       <c r="J35" s="119"/>
@@ -7220,8 +7229,8 @@
       <c r="E36" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="231"/>
-      <c r="G36" s="232"/>
+      <c r="F36" s="218"/>
+      <c r="G36" s="219"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="95">
@@ -7239,8 +7248,8 @@
       <c r="E37" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="231"/>
-      <c r="G37" s="232"/>
+      <c r="F37" s="218"/>
+      <c r="G37" s="219"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="101"/>
@@ -7253,10 +7262,10 @@
       <c r="H38" s="103"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="220" t="s">
+      <c r="B39" s="223" t="s">
         <v>180</v>
       </c>
-      <c r="C39" s="220"/>
+      <c r="C39" s="223"/>
       <c r="D39" s="89"/>
       <c r="E39" s="89"/>
       <c r="F39" s="89"/>
@@ -7280,15 +7289,15 @@
       <c r="B41" s="154" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="233" t="s">
+      <c r="C41" s="228" t="s">
         <v>182</v>
       </c>
-      <c r="D41" s="233"/>
-      <c r="E41" s="233" t="s">
+      <c r="D41" s="228"/>
+      <c r="E41" s="228" t="s">
         <v>183</v>
       </c>
-      <c r="F41" s="233"/>
-      <c r="G41" s="233"/>
+      <c r="F41" s="228"/>
+      <c r="G41" s="228"/>
       <c r="H41" s="94" t="s">
         <v>184</v>
       </c>
@@ -7300,15 +7309,15 @@
       <c r="B42" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="C42" s="230" t="s">
+      <c r="C42" s="231" t="s">
         <v>186</v>
       </c>
-      <c r="D42" s="230"/>
-      <c r="E42" s="230" t="s">
+      <c r="D42" s="231"/>
+      <c r="E42" s="231" t="s">
         <v>187</v>
       </c>
-      <c r="F42" s="230"/>
-      <c r="G42" s="230"/>
+      <c r="F42" s="231"/>
+      <c r="G42" s="231"/>
       <c r="H42" s="104"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -7318,15 +7327,15 @@
       <c r="B43" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="C43" s="230" t="s">
+      <c r="C43" s="231" t="s">
         <v>186</v>
       </c>
-      <c r="D43" s="230"/>
-      <c r="E43" s="230" t="s">
+      <c r="D43" s="231"/>
+      <c r="E43" s="231" t="s">
         <v>187</v>
       </c>
-      <c r="F43" s="230"/>
-      <c r="G43" s="230"/>
+      <c r="F43" s="231"/>
+      <c r="G43" s="231"/>
       <c r="H43" s="104"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -7336,15 +7345,15 @@
       <c r="B44" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="C44" s="230" t="s">
+      <c r="C44" s="231" t="s">
         <v>186</v>
       </c>
-      <c r="D44" s="230"/>
-      <c r="E44" s="230" t="s">
+      <c r="D44" s="231"/>
+      <c r="E44" s="231" t="s">
         <v>187</v>
       </c>
-      <c r="F44" s="230"/>
-      <c r="G44" s="230"/>
+      <c r="F44" s="231"/>
+      <c r="G44" s="231"/>
       <c r="H44" s="104"/>
     </row>
     <row r="45" spans="1:12">
@@ -7356,10 +7365,10 @@
       <c r="G45" s="93"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="220" t="s">
+      <c r="B46" s="223" t="s">
         <v>188</v>
       </c>
-      <c r="C46" s="220"/>
+      <c r="C46" s="223"/>
       <c r="D46" s="89"/>
       <c r="E46" s="89"/>
       <c r="F46" s="89"/>
@@ -7377,25 +7386,25 @@
       <c r="G47" s="93"/>
     </row>
     <row r="48" spans="1:12" s="108" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="221" t="s">
+      <c r="A48" s="234" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="223" t="s">
+      <c r="B48" s="236" t="s">
         <v>190</v>
       </c>
-      <c r="C48" s="225" t="s">
+      <c r="C48" s="226" t="s">
         <v>191</v>
       </c>
-      <c r="D48" s="226"/>
-      <c r="E48" s="226"/>
+      <c r="D48" s="238"/>
+      <c r="E48" s="238"/>
       <c r="F48" s="227"/>
-      <c r="G48" s="228" t="s">
+      <c r="G48" s="239" t="s">
         <v>158</v>
       </c>
-      <c r="H48" s="228" t="s">
+      <c r="H48" s="239" t="s">
         <v>190</v>
       </c>
-      <c r="I48" s="218" t="s">
+      <c r="I48" s="232" t="s">
         <v>192</v>
       </c>
       <c r="J48" s="107"/>
@@ -7403,8 +7412,8 @@
       <c r="L48" s="107"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="222"/>
-      <c r="B49" s="224"/>
+      <c r="A49" s="235"/>
+      <c r="B49" s="237"/>
       <c r="C49" s="109" t="s">
         <v>167</v>
       </c>
@@ -7417,13 +7426,13 @@
       <c r="F49" s="110" t="s">
         <v>170</v>
       </c>
-      <c r="G49" s="229"/>
-      <c r="H49" s="229"/>
-      <c r="I49" s="219"/>
+      <c r="G49" s="240"/>
+      <c r="H49" s="240"/>
+      <c r="I49" s="233"/>
     </row>
     <row r="50" spans="1:9" ht="38.25">
-      <c r="A50" s="222"/>
-      <c r="B50" s="224"/>
+      <c r="A50" s="235"/>
+      <c r="B50" s="237"/>
       <c r="C50" s="123" t="s">
         <v>193</v>
       </c>
@@ -7535,6 +7544,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -7547,26 +7576,6 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -7604,12 +7613,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7778,15 +7784,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7811,10 +7821,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>